--- a/excel/02/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/02/1420 Terry - 4 - Appreciation.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/github/benofben/the_intelligent_property_investor/excel/2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/github/benofben/the_intelligent_property_investor/excel/02/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080DD8D-4649-944A-9CC2-993D1C6C61F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
@@ -15,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -778,109 +779,109 @@
                   <c:v>0.4273276876787328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8322308812628241E-2</c:v>
+                  <c:v>5.878859838044647E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6743194214908735E-2</c:v>
+                  <c:v>6.2691140956281671E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5373823518948659E-2</c:v>
+                  <c:v>6.1540849230753522E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4766283839699785E-2</c:v>
+                  <c:v>7.1124952966037241E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2922678918544023E-2</c:v>
+                  <c:v>6.9450362207871971E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.128511113621408E-2</c:v>
+                  <c:v>6.7962925738868682E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9821246472689641E-2</c:v>
+                  <c:v>6.6633272955834585E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.8505172894500407E-2</c:v>
+                  <c:v>6.5437866666176972E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7315881265251967E-2</c:v>
+                  <c:v>6.4357623223168778E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.6236157981738056E-2</c:v>
+                  <c:v>6.337690665209926E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.525176477211822E-2</c:v>
+                  <c:v>6.2482783620051649E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.4350822377393688E-2</c:v>
+                  <c:v>6.1664463603048621E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3523341340954956E-2</c:v>
+                  <c:v>6.0912872678797088E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2760860508398131E-2</c:v>
+                  <c:v>6.02203251580418E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.2056165454134775E-2</c:v>
+                  <c:v>5.9580267817412186E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1403066950672824E-2</c:v>
+                  <c:v>5.8987078672021895E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0796225055853442E-2</c:v>
+                  <c:v>5.8435907185132821E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0231008222384523E-2</c:v>
+                  <c:v>5.792254629031849E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9703379556294893E-2</c:v>
+                  <c:v>5.7443329074345718E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.9209804310868669E-2</c:v>
+                  <c:v>5.6995044749302039E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.8747174130240415E-2</c:v>
+                  <c:v>5.65748698392761E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.8312744608050332E-2</c:v>
+                  <c:v>5.6180311461770362E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.7904083508563978E-2</c:v>
+                  <c:v>5.5809160294362822E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.751902758486583E-2</c:v>
+                  <c:v>5.5459451350519516E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7155646373664749E-2</c:v>
+                  <c:v>5.5129431092611411E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.6563643715846906E-2</c:v>
+                  <c:v>5.4568961748633793E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.6563643715847052E-2</c:v>
+                  <c:v>5.4568961748633932E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.6563643715847066E-2</c:v>
+                  <c:v>5.4568961748633953E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.6563643715847038E-2</c:v>
+                  <c:v>5.4568961748633925E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.6563643715846976E-2</c:v>
+                  <c:v>5.4568961748633862E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.6563643715847024E-2</c:v>
+                  <c:v>5.4568961748633918E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.6563643715847073E-2</c:v>
+                  <c:v>5.4568961748633946E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6563643715847038E-2</c:v>
+                  <c:v>5.4568961748633925E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6563643715846927E-2</c:v>
+                  <c:v>5.4568961748633814E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.6563643715846927E-2</c:v>
+                  <c:v>5.4568961748633821E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,109 +1385,109 @@
                   <c:v>-8691.4900000000016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6597.0396000000037</c:v>
+                  <c:v>-9022.260000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6159.5363880000059</c:v>
+                  <c:v>-7287.469200000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5708.9080796400067</c:v>
+                  <c:v>-6870.6788760000036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1764.2809220292038</c:v>
+                  <c:v>-2960.9048422800061</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1286.2093496900779</c:v>
+                  <c:v>-2518.7319875484027</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-793.79563018077897</c:v>
+                  <c:v>-2063.2939471748541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-286.60949908620387</c:v>
+                  <c:v>-1594.1927655901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>235.79221594120827</c:v>
+                  <c:v>-1111.0185485578058</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>773.86598241944921</c:v>
+                  <c:v>-613.34910501453669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1328.0819618920304</c:v>
+                  <c:v>-100.7495781649759</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1898.9244207487955</c:v>
+                  <c:v>427.22793449007804</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2486.8921533712619</c:v>
+                  <c:v>971.04477252478682</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3092.4989179723943</c:v>
+                  <c:v>1531.1761157005221</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3716.2738855115676</c:v>
+                  <c:v>2108.1113991715429</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4358.7621020769129</c:v>
+                  <c:v>2702.354741146688</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5020.5249651392169</c:v>
+                  <c:v>3314.425383381089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5702.1407140933916</c:v>
+                  <c:v>3944.8581448825153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6404.204935516198</c:v>
+                  <c:v>4594.2038892289966</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7127.331083581681</c:v>
+                  <c:v>5263.0300059058609</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7872.1510160891321</c:v>
+                  <c:v>5951.9209060830344</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8639.3155465718046</c:v>
+                  <c:v>6661.4785332655265</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9429.4950129689569</c:v>
+                  <c:v>7392.3228892634907</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10243.379863358032</c:v>
+                  <c:v>8145.0925759413985</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11081.681259258776</c:v>
+                  <c:v>8920.4453532196421</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11945.131697036544</c:v>
+                  <c:v>9719.0587138162373</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30534.485647947637</c:v>
+                  <c:v>28241.630475230726</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>31450.520217386067</c:v>
+                  <c:v>29088.879389487643</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>32394.035823907649</c:v>
+                  <c:v>29961.545771172277</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33365.856898624879</c:v>
+                  <c:v>30860.392144307447</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34366.832605583622</c:v>
+                  <c:v>31786.203908636664</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>35397.837583751141</c:v>
+                  <c:v>32739.790025895774</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36459.772711263671</c:v>
+                  <c:v>33721.983726672639</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37553.565892601582</c:v>
+                  <c:v>34733.643238472832</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>38680.172869379632</c:v>
+                  <c:v>35775.652535627014</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>39840.578055461025</c:v>
+                  <c:v>36848.922111695829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3560,65 +3561,65 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="16">
         <v>2018</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="17">
         <v>0.03</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="18">
         <f t="shared" ref="C8:C32" si="7">C7</f>
         <v>-1475</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="18">
         <v>-290.04000000000002</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" ref="E8:E67" si="8">E7*(1+B8)</f>
-        <v>-378.12330000000009</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F34" si="9">F7*(1+B8)</f>
+      <c r="E8" s="18">
+        <f>-2234.42-C8-D8</f>
+        <v>-469.38000000000005</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" ref="F8:F34" si="8">F7*(1+B8)</f>
         <v>-569.59</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="18">
         <f>G7*(1+B8)</f>
         <v>2163</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="H8" s="18">
+        <v>-1330.14</v>
+      </c>
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>2.9166666666666668E-3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="16">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="18">
         <f t="shared" si="2"/>
         <v>-287109.19375971658</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="18">
         <f>L7*(1+B8)</f>
         <v>565470</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="18">
         <f t="shared" si="3"/>
         <v>278360.80624028342</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="21">
         <f>M8-M7+12*(C8+D8+E8+F8+G8)+H8</f>
-        <v>17380.080744655701</v>
-      </c>
-      <c r="O8" s="12">
+        <v>14954.860344655703</v>
+      </c>
+      <c r="O8" s="22">
         <f t="shared" si="6"/>
-        <v>6.8322308812628241E-2</v>
-      </c>
-      <c r="P8" s="8">
+        <v>5.878859838044647E-2</v>
+      </c>
+      <c r="P8" s="21">
         <f t="shared" si="5"/>
-        <v>-6597.0396000000037</v>
+        <v>-9022.260000000002</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3637,11 +3638,11 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E9" s="5">
+        <f t="shared" ref="E8:E67" si="9">E8*(1+B9)</f>
+        <v>-483.46140000000008</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="8"/>
-        <v>-389.4669990000001</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="9"/>
         <v>-586.67770000000007</v>
       </c>
       <c r="G9" s="5">
@@ -3673,15 +3674,15 @@
       </c>
       <c r="N9" s="8">
         <f t="shared" si="4"/>
-        <v>18578.689352713816</v>
+        <v>17450.756540713817</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="6"/>
-        <v>6.6743194214908735E-2</v>
+        <v>6.2691140956281671E-2</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="5"/>
-        <v>-6159.5363880000059</v>
+        <v>-7287.469200000005</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3700,11 +3701,11 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E10" s="5">
+        <f t="shared" si="9"/>
+        <v>-497.9652420000001</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="8"/>
-        <v>-401.15100897000013</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="9"/>
         <v>-604.27803100000006</v>
       </c>
       <c r="G10" s="5">
@@ -3736,15 +3737,15 @@
       </c>
       <c r="N10" s="8">
         <f t="shared" si="4"/>
-        <v>19814.742625489889</v>
+        <v>18652.971829129892</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="6"/>
-        <v>6.5373823518948659E-2</v>
+        <v>6.1540849230753522E-2</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="5"/>
-        <v>-5708.9080796400067</v>
+        <v>-6870.6788760000036</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3763,11 +3764,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="5">
+        <f t="shared" si="9"/>
+        <v>-512.90419926000015</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="8"/>
-        <v>-413.18553923910014</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="9"/>
         <v>-622.40637193000009</v>
       </c>
       <c r="G11" s="5">
@@ -3799,15 +3800,15 @@
       </c>
       <c r="N11" s="8">
         <f t="shared" si="4"/>
-        <v>24569.896769874576</v>
+        <v>23373.272849623776</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="6"/>
-        <v>7.4766283839699785E-2</v>
+        <v>7.1124952966037241E-2</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="5"/>
-        <v>-1764.2809220292038</v>
+        <v>-2960.9048422800061</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3826,11 +3827,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="5">
+        <f t="shared" si="9"/>
+        <v>-528.29132523780015</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="8"/>
-        <v>-425.58110541627315</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="9"/>
         <v>-641.07856308790008</v>
       </c>
       <c r="G12" s="5">
@@ -3862,15 +3863,15 @@
       </c>
       <c r="N12" s="8">
         <f t="shared" si="4"/>
-        <v>25884.40515928161</v>
+        <v>24651.882521423286</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="6"/>
-        <v>7.2922678918544023E-2</v>
+        <v>6.9450362207871971E-2</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="5"/>
-        <v>-1286.2093496900779</v>
+        <v>-2518.7319875484027</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3889,11 +3890,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="5">
+        <f t="shared" si="9"/>
+        <v>-544.14006499493416</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="8"/>
-        <v>-438.34853857876135</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="9"/>
         <v>-660.31091998053705</v>
       </c>
       <c r="G13" s="5">
@@ -3925,15 +3926,15 @@
       </c>
       <c r="N13" s="8">
         <f t="shared" si="4"/>
-        <v>27239.999515520838</v>
+        <v>25970.501198526763</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="6"/>
-        <v>7.128511113621408E-2</v>
+        <v>6.7962925738868682E-2</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="5"/>
-        <v>-793.79563018077897</v>
+        <v>-2063.2939471748541</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -3952,11 +3953,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="5">
+        <f t="shared" si="9"/>
+        <v>-560.46426694478225</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="8"/>
-        <v>-451.49899473612419</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="9"/>
         <v>-680.12024757995323</v>
       </c>
       <c r="G14" s="5">
@@ -3988,15 +3989,15 @@
       </c>
       <c r="N14" s="8">
         <f t="shared" si="4"/>
-        <v>28637.971128504854</v>
+        <v>27330.387862000956</v>
       </c>
       <c r="O14" s="12">
         <f t="shared" si="6"/>
-        <v>6.9821246472689641E-2</v>
+        <v>6.6633272955834585E-2</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="5"/>
-        <v>-286.60949908620387</v>
+        <v>-1594.1927655901</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -4015,11 +4016,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="5">
+        <f t="shared" si="9"/>
+        <v>-577.27819495312576</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="8"/>
-        <v>-465.04396457820792</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="9"/>
         <v>-700.52385500735181</v>
       </c>
       <c r="G15" s="5">
@@ -4051,15 +4052,15 @@
       </c>
       <c r="N15" s="8">
         <f t="shared" si="4"/>
-        <v>30079.652115012312</v>
+        <v>28732.841350513299</v>
       </c>
       <c r="O15" s="12">
         <f t="shared" si="6"/>
-        <v>6.8505172894500407E-2</v>
+        <v>6.5437866666176972E-2</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="5"/>
-        <v>235.79221594120827</v>
+        <v>-1111.0185485578058</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -4078,11 +4079,11 @@
         <v>0</v>
       </c>
       <c r="E16" s="5">
+        <f t="shared" si="9"/>
+        <v>-594.59654080171958</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="8"/>
-        <v>-478.99528351555415</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="9"/>
         <v>-721.53957065757243</v>
       </c>
       <c r="G16" s="5">
@@ -4114,15 +4115,15 @@
       </c>
       <c r="N16" s="8">
         <f t="shared" si="4"/>
-        <v>31566.416717763277</v>
+        <v>30179.201630329291</v>
       </c>
       <c r="O16" s="12">
         <f t="shared" si="6"/>
-        <v>6.7315881265251967E-2</v>
+        <v>6.4357623223168778E-2</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="5"/>
-        <v>773.86598241944921</v>
+        <v>-613.34910501453669</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4141,11 +4142,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="5">
+        <f t="shared" si="9"/>
+        <v>-612.43443702577122</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="8"/>
-        <v>-493.3651420210208</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="9"/>
         <v>-743.18575777729961</v>
       </c>
       <c r="G17" s="5">
@@ -4177,15 +4178,15 @@
       </c>
       <c r="N17" s="8">
         <f t="shared" si="4"/>
-        <v>33099.682646107809</v>
+        <v>31670.851106050803</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="6"/>
-        <v>6.6236157981738056E-2</v>
+        <v>6.337690665209926E-2</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="5"/>
-        <v>1328.0819618920304</v>
+        <v>-100.7495781649759</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4204,11 +4205,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="5">
+        <f t="shared" si="9"/>
+        <v>-630.80747013654434</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="8"/>
-        <v>-508.16609628165145</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="9"/>
         <v>-765.48133051061859</v>
       </c>
       <c r="G18" s="5">
@@ -4240,15 +4241,15 @@
       </c>
       <c r="N18" s="8">
         <f t="shared" si="4"/>
-        <v>34680.912459673549</v>
+        <v>33209.21597341483</v>
       </c>
       <c r="O18" s="12">
         <f t="shared" si="6"/>
-        <v>6.525176477211822E-2</v>
+        <v>6.2482783620051649E-2</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="5"/>
-        <v>1898.9244207487955</v>
+        <v>427.22793449007804</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4267,11 +4268,11 @@
         <v>0</v>
       </c>
       <c r="E19" s="5">
+        <f t="shared" si="9"/>
+        <v>-649.73169424064065</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="8"/>
-        <v>-523.41107917010106</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="9"/>
         <v>-788.44577042593721</v>
       </c>
       <c r="G19" s="5">
@@ -4303,15 +4304,15 @@
       </c>
       <c r="N19" s="8">
         <f t="shared" si="4"/>
-        <v>36311.614996351556</v>
+        <v>34795.767615505079</v>
       </c>
       <c r="O19" s="12">
         <f t="shared" si="6"/>
-        <v>6.4350822377393688E-2</v>
+        <v>6.1664463603048621E-2</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="5"/>
-        <v>2486.8921533712619</v>
+        <v>971.04477252478682</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4330,11 +4331,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="5">
+        <f t="shared" si="9"/>
+        <v>-669.22364506785993</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="8"/>
-        <v>-539.11341154520414</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="9"/>
         <v>-812.09914353871534</v>
       </c>
       <c r="G20" s="5">
@@ -4366,15 +4367,15 @@
       </c>
       <c r="N20" s="8">
         <f t="shared" si="4"/>
-        <v>37993.34684605927</v>
+        <v>36432.024043787402</v>
       </c>
       <c r="O20" s="12">
         <f t="shared" si="6"/>
-        <v>6.3523341340954956E-2</v>
+        <v>6.0912872678797088E-2</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="5"/>
-        <v>3092.4989179723943</v>
+        <v>1531.1761157005221</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4393,11 +4394,11 @@
         <v>0</v>
       </c>
       <c r="E21" s="5">
+        <f t="shared" si="9"/>
+        <v>-689.30035441989571</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="8"/>
-        <v>-555.28681389156031</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="9"/>
         <v>-836.46211784487684</v>
       </c>
       <c r="G21" s="5">
@@ -4429,15 +4430,15 @@
       </c>
       <c r="N21" s="8">
         <f t="shared" si="4"/>
-        <v>39727.713871751104</v>
+        <v>38119.551385411076</v>
       </c>
       <c r="O21" s="12">
         <f t="shared" si="6"/>
-        <v>6.2760860508398131E-2</v>
+        <v>6.02203251580418E-2</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="5"/>
-        <v>3716.2738855115676</v>
+        <v>2108.1113991715429</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4456,11 +4457,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="5">
+        <f t="shared" si="9"/>
+        <v>-709.97936505249265</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="8"/>
-        <v>-571.94541830830713</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="9"/>
         <v>-861.55598138022322</v>
       </c>
       <c r="G22" s="5">
@@ -4492,15 +4493,15 @@
       </c>
       <c r="N22" s="8">
         <f t="shared" si="4"/>
-        <v>41516.372779207202</v>
+        <v>39859.965418276974</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="6"/>
-        <v>6.2056165454134775E-2</v>
+        <v>5.9580267817412186E-2</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="5"/>
-        <v>4358.7621020769129</v>
+        <v>2702.354741146688</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4519,11 +4520,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="5">
+        <f t="shared" si="9"/>
+        <v>-731.27874600406744</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="8"/>
-        <v>-589.10378085755633</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="9"/>
         <v>-887.40266082162998</v>
       </c>
       <c r="G23" s="5">
@@ -4555,15 +4556,15 @@
       </c>
       <c r="N23" s="8">
         <f t="shared" si="4"/>
-        <v>43361.032737173016</v>
+        <v>41654.933155414888</v>
       </c>
       <c r="O23" s="12">
         <f t="shared" si="6"/>
-        <v>6.1403066950672824E-2</v>
+        <v>5.8987078672021895E-2</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="5"/>
-        <v>5020.5249651392169</v>
+        <v>3314.425383381089</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4582,11 +4583,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="5">
+        <f t="shared" si="9"/>
+        <v>-753.21710838418949</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="8"/>
-        <v>-606.77689428328301</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="9"/>
         <v>-914.02474064627893</v>
       </c>
       <c r="G24" s="5">
@@ -4618,15 +4619,15 @@
       </c>
       <c r="N24" s="8">
         <f t="shared" si="4"/>
-        <v>45263.457049475677</v>
+        <v>43506.174480264803</v>
       </c>
       <c r="O24" s="12">
         <f t="shared" si="6"/>
-        <v>6.0796225055853442E-2</v>
+        <v>5.8435907185132821E-2</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="5"/>
-        <v>5702.1407140933916</v>
+        <v>3944.8581448825153</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4645,11 +4646,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="5">
+        <f t="shared" si="9"/>
+        <v>-775.81362163571521</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="8"/>
-        <v>-624.98020111178153</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="9"/>
         <v>-941.44548286566737</v>
       </c>
       <c r="G25" s="5">
@@ -4681,15 +4682,15 @@
       </c>
       <c r="N25" s="8">
         <f t="shared" si="4"/>
-        <v>47225.464880800428</v>
+        <v>45415.463834513226</v>
       </c>
       <c r="O25" s="12">
         <f t="shared" si="6"/>
-        <v>6.0231008222384523E-2</v>
+        <v>5.792254629031849E-2</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="5"/>
-        <v>6404.204935516198</v>
+        <v>4594.2038892289966</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4708,11 +4709,11 @@
         <v>0</v>
       </c>
       <c r="E26" s="5">
+        <f t="shared" si="9"/>
+        <v>-799.08803028478667</v>
+      </c>
+      <c r="F26" s="5">
         <f t="shared" si="8"/>
-        <v>-643.72960714513499</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="9"/>
         <v>-969.68884735163738</v>
       </c>
       <c r="G26" s="5">
@@ -4744,15 +4745,15 @@
       </c>
       <c r="N26" s="8">
         <f t="shared" si="4"/>
-        <v>49248.93303785591</v>
+        <v>47384.631960180093</v>
       </c>
       <c r="O26" s="12">
         <f t="shared" si="6"/>
-        <v>5.9703379556294893E-2</v>
+        <v>5.7443329074345718E-2</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="5"/>
-        <v>7127.331083581681</v>
+        <v>5263.0300059058609</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4771,11 +4772,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="5">
+        <f t="shared" si="9"/>
+        <v>-823.06067119333034</v>
+      </c>
+      <c r="F27" s="5">
         <f t="shared" si="8"/>
-        <v>-663.04149535948909</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" si="9"/>
         <v>-998.77951277218654</v>
       </c>
       <c r="G27" s="5">
@@ -4807,15 +4808,15 @@
       </c>
       <c r="N27" s="8">
         <f t="shared" si="4"/>
-        <v>51335.797807719908</v>
+        <v>49415.567697713806</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="6"/>
-        <v>5.9209804310868669E-2</v>
+        <v>5.6995044749302039E-2</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="5"/>
-        <v>7872.1510160891321</v>
+        <v>5951.9209060830344</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4834,11 +4835,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="5">
+        <f t="shared" si="9"/>
+        <v>-847.75249132913029</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="8"/>
-        <v>-682.93274022027379</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="9"/>
         <v>-1028.7428981553521</v>
       </c>
       <c r="G28" s="5">
@@ -4870,15 +4871,15 @@
       </c>
       <c r="N28" s="8">
         <f t="shared" si="4"/>
-        <v>53488.056855220289</v>
+        <v>51510.219841914019</v>
       </c>
       <c r="O28" s="12">
         <f t="shared" si="6"/>
-        <v>5.8747174130240415E-2</v>
+        <v>5.65748698392761E-2</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="5"/>
-        <v>8639.3155465718046</v>
+        <v>6661.4785332655265</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4897,11 +4898,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="5">
+        <f t="shared" si="9"/>
+        <v>-873.18506606900428</v>
+      </c>
+      <c r="F29" s="5">
         <f t="shared" si="8"/>
-        <v>-703.42072242688198</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="9"/>
         <v>-1059.6051851000127</v>
       </c>
       <c r="G29" s="5">
@@ -4933,15 +4934,15 @@
       </c>
       <c r="N29" s="8">
         <f t="shared" si="4"/>
-        <v>55707.771181249118</v>
+        <v>53670.599057543659</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="6"/>
-        <v>5.8312744608050332E-2</v>
+        <v>5.6180311461770362E-2</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="5"/>
-        <v>9429.4950129689569</v>
+        <v>7392.3228892634907</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -4960,11 +4961,11 @@
         <v>0</v>
       </c>
       <c r="E30" s="5">
+        <f t="shared" si="9"/>
+        <v>-899.38061805107441</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="8"/>
-        <v>-724.52334409968842</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="9"/>
         <v>-1091.3933406530132</v>
       </c>
       <c r="G30" s="5">
@@ -4996,15 +4997,15 @@
       </c>
       <c r="N30" s="8">
         <f t="shared" si="4"/>
-        <v>57997.067143991633</v>
+        <v>55898.779856574998</v>
       </c>
       <c r="O30" s="12">
         <f t="shared" si="6"/>
-        <v>5.7904083508563978E-2</v>
+        <v>5.5809160294362822E-2</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="5"/>
-        <v>10243.379863358032</v>
+        <v>8145.0925759413985</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5023,11 +5024,11 @@
         <v>0</v>
       </c>
       <c r="E31" s="5">
+        <f t="shared" si="9"/>
+        <v>-926.36203659260661</v>
+      </c>
+      <c r="F31" s="5">
         <f t="shared" si="8"/>
-        <v>-746.25904442267904</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="9"/>
         <v>-1124.1351408726036</v>
       </c>
       <c r="G31" s="5">
@@ -5059,15 +5060,15 @@
       </c>
       <c r="N31" s="8">
         <f t="shared" si="4"/>
-        <v>60358.138545098605</v>
+        <v>58196.902639059474</v>
       </c>
       <c r="O31" s="12">
         <f t="shared" si="6"/>
-        <v>5.751902758486583E-2</v>
+        <v>5.5459451350519516E-2</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="5"/>
-        <v>11081.681259258776</v>
+        <v>8920.4453532196421</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5086,11 +5087,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="5">
+        <f t="shared" si="9"/>
+        <v>-954.15289769038486</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="8"/>
-        <v>-768.6468157553594</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="9"/>
         <v>-1157.8591950987818</v>
       </c>
       <c r="G32" s="5">
@@ -5122,15 +5123,15 @@
       </c>
       <c r="N32" s="8">
         <f t="shared" si="4"/>
-        <v>62793.248782906201</v>
+        <v>60567.175799685894</v>
       </c>
       <c r="O32" s="12">
         <f t="shared" si="6"/>
-        <v>5.7155646373664749E-2</v>
+        <v>5.5129431092611411E-2</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="5"/>
-        <v>11945.131697036544</v>
+        <v>9719.0587138162373</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5148,11 +5149,11 @@
         <v>0</v>
       </c>
       <c r="E33" s="5">
+        <f t="shared" si="9"/>
+        <v>-982.77748462109639</v>
+      </c>
+      <c r="F33" s="5">
         <f t="shared" si="8"/>
-        <v>-791.70622022802024</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="9"/>
         <v>-1192.5949709517454</v>
       </c>
       <c r="G33" s="5">
@@ -5175,15 +5176,15 @@
       </c>
       <c r="N33" s="8">
         <f t="shared" si="4"/>
-        <v>65019.008149352499</v>
+        <v>62726.152976635589</v>
       </c>
       <c r="O33" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846906E-2</v>
+        <v>5.4568961748633793E-2</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="5"/>
-        <v>30534.485647947637</v>
+        <v>28241.630475230726</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5201,11 +5202,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="5">
+        <f t="shared" si="9"/>
+        <v>-1012.2608091597293</v>
+      </c>
+      <c r="F34" s="5">
         <f t="shared" si="8"/>
-        <v>-815.45740683486088</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="9"/>
         <v>-1228.3728200802977</v>
       </c>
       <c r="G34" s="5">
@@ -5228,15 +5229,15 @@
       </c>
       <c r="N34" s="8">
         <f t="shared" si="4"/>
-        <v>66969.578393833246</v>
+        <v>64607.937565934815</v>
       </c>
       <c r="O34" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847052E-2</v>
+        <v>5.4568961748633932E-2</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="5"/>
-        <v>31450.520217386067</v>
+        <v>29088.879389487643</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5254,8 +5255,8 @@
         <v>0</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="8"/>
-        <v>-839.92112903990676</v>
+        <f t="shared" si="9"/>
+        <v>-1042.6286334345211</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" ref="F35:F71" si="12">F34*(1+B35)</f>
@@ -5281,15 +5282,15 @@
       </c>
       <c r="N35" s="8">
         <f t="shared" si="4"/>
-        <v>68978.665745648264</v>
+        <v>66546.17569291289</v>
       </c>
       <c r="O35" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847066E-2</v>
+        <v>5.4568961748633953E-2</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="5"/>
-        <v>32394.035823907649</v>
+        <v>29961.545771172277</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5307,8 +5308,8 @@
         <v>0</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="8"/>
-        <v>-865.118762911104</v>
+        <f t="shared" si="9"/>
+        <v>-1073.9074924375568</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="12"/>
@@ -5334,15 +5335,15 @@
       </c>
       <c r="N36" s="8">
         <f t="shared" si="4"/>
-        <v>71048.025718017685</v>
+        <v>68542.560963700249</v>
       </c>
       <c r="O36" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847038E-2</v>
+        <v>5.4568961748633925E-2</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="5"/>
-        <v>33365.856898624879</v>
+        <v>30860.392144307447</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5360,8 +5361,8 @@
         <v>0</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="8"/>
-        <v>-891.07232579843719</v>
+        <f t="shared" si="9"/>
+        <v>-1106.1247172106835</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="12"/>
@@ -5387,15 +5388,15 @@
       </c>
       <c r="N37" s="8">
         <f t="shared" si="4"/>
-        <v>73179.466489558137</v>
+        <v>70598.837792611186</v>
       </c>
       <c r="O37" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846976E-2</v>
+        <v>5.4568961748633862E-2</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="5"/>
-        <v>34366.832605583622</v>
+        <v>31786.203908636664</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5413,8 +5414,8 @@
         <v>0</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="8"/>
-        <v>-917.80449557239035</v>
+        <f t="shared" si="9"/>
+        <v>-1139.3084587270039</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="12"/>
@@ -5440,15 +5441,15 @@
       </c>
       <c r="N38" s="8">
         <f t="shared" si="4"/>
-        <v>75374.850484244947</v>
+        <v>72716.802926389588</v>
       </c>
       <c r="O38" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847024E-2</v>
+        <v>5.4568961748633918E-2</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="5"/>
-        <v>35397.837583751141</v>
+        <v>32739.790025895774</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5466,8 +5467,8 @@
         <v>0</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="8"/>
-        <v>-945.33863043956205</v>
+        <f t="shared" si="9"/>
+        <v>-1173.4877124888139</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="12"/>
@@ -5493,15 +5494,15 @@
       </c>
       <c r="N39" s="8">
         <f t="shared" si="4"/>
-        <v>77636.095998772362</v>
+        <v>74898.307014181322</v>
       </c>
       <c r="O39" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847073E-2</v>
+        <v>5.4568961748633946E-2</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="5"/>
-        <v>36459.772711263671</v>
+        <v>33721.983726672639</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5519,8 +5520,8 @@
         <v>0</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="8"/>
-        <v>-973.69878935274892</v>
+        <f t="shared" si="9"/>
+        <v>-1208.6923438634783</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="12"/>
@@ -5546,15 +5547,15 @@
       </c>
       <c r="N40" s="8">
         <f t="shared" si="4"/>
-        <v>79965.178878735489</v>
+        <v>77145.256224606739</v>
       </c>
       <c r="O40" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847038E-2</v>
+        <v>5.4568961748633925E-2</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="5"/>
-        <v>37553.565892601582</v>
+        <v>34733.643238472832</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5572,8 +5573,8 @@
         <v>0</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="8"/>
-        <v>-1002.9097530333314</v>
+        <f t="shared" si="9"/>
+        <v>-1244.9531141793827</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="12"/>
@@ -5599,15 +5600,15 @@
       </c>
       <c r="N41" s="8">
         <f t="shared" si="4"/>
-        <v>82364.134245097404</v>
+        <v>79459.613911344786</v>
       </c>
       <c r="O41" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846927E-2</v>
+        <v>5.4568961748633814E-2</v>
       </c>
       <c r="P41" s="8">
         <f t="shared" si="5"/>
-        <v>38680.172869379632</v>
+        <v>35775.652535627014</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5625,8 +5626,8 @@
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="8"/>
-        <v>-1032.9970456243313</v>
+        <f t="shared" si="9"/>
+        <v>-1282.3017076047643</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="12"/>
@@ -5652,15 +5653,15 @@
       </c>
       <c r="N42" s="8">
         <f t="shared" si="4"/>
-        <v>84835.058272450318</v>
+        <v>81843.40232868513</v>
       </c>
       <c r="O42" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846927E-2</v>
+        <v>5.4568961748633821E-2</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="5"/>
-        <v>39840.578055461025</v>
+        <v>36848.922111695829</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5678,8 +5679,8 @@
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="8"/>
-        <v>-1063.9869569930613</v>
+        <f t="shared" si="9"/>
+        <v>-1320.7707588329072</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="12"/>
@@ -5705,15 +5706,15 @@
       </c>
       <c r="N43" s="8">
         <f t="shared" si="4"/>
-        <v>87380.110020623906</v>
+        <v>84298.704398545757</v>
       </c>
       <c r="O43" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846983E-2</v>
+        <v>5.4568961748633869E-2</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="5"/>
-        <v>41035.79539712485</v>
+        <v>37954.3897750467</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5731,8 +5732,8 @@
         <v>0</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="8"/>
-        <v>-1095.9065657028532</v>
+        <f t="shared" si="9"/>
+        <v>-1360.3938815978945</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="12"/>
@@ -5758,15 +5759,15 @@
       </c>
       <c r="N44" s="8">
         <f t="shared" si="4"/>
-        <v>90001.513321242659</v>
+        <v>86827.665530502156</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847003E-2</v>
+        <v>5.4568961748633883E-2</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="5"/>
-        <v>42266.869259038605</v>
+        <v>39093.02146829811</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5784,8 +5785,8 @@
         <v>0</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="8"/>
-        <v>-1128.7837626739388</v>
+        <f t="shared" si="9"/>
+        <v>-1401.2056980458315</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="12"/>
@@ -5811,15 +5812,15 @@
       </c>
       <c r="N45" s="8">
         <f t="shared" si="4"/>
-        <v>92701.558720879926</v>
+        <v>89432.495496417221</v>
       </c>
       <c r="O45" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846997E-2</v>
+        <v>5.4568961748633883E-2</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="5"/>
-        <v>43534.87533680976</v>
+        <v>40265.812112347048</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5837,8 +5838,8 @@
         <v>0</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="8"/>
-        <v>-1162.647275554157</v>
+        <f t="shared" si="9"/>
+        <v>-1443.2418689872065</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="12"/>
@@ -5864,15 +5865,15 @@
       </c>
       <c r="N46" s="8">
         <f t="shared" si="4"/>
-        <v>95482.605482506318</v>
+        <v>92115.470361309737</v>
       </c>
       <c r="O46" s="12">
         <f t="shared" si="6"/>
-        <v>5.656364371584699E-2</v>
+        <v>5.4568961748633883E-2</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="5"/>
-        <v>44840.92159691405</v>
+        <v>41473.786475717461</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5890,8 +5891,8 @@
         <v>0</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="8"/>
-        <v>-1197.5266938207817</v>
+        <f t="shared" si="9"/>
+        <v>-1486.5391250568227</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="12"/>
@@ -5917,15 +5918,15 @@
       </c>
       <c r="N47" s="8">
         <f t="shared" si="4"/>
-        <v>98347.083646981599</v>
+        <v>94878.934472149092</v>
       </c>
       <c r="O47" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847038E-2</v>
+        <v>5.4568961748633918E-2</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="5"/>
-        <v>46186.149244821478</v>
+        <v>42718.000069988986</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -5943,8 +5944,8 @@
         <v>0</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="8"/>
-        <v>-1233.4524946354052</v>
+        <f t="shared" si="9"/>
+        <v>-1531.1352988085275</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="12"/>
@@ -5970,15 +5971,15 @@
       </c>
       <c r="N48" s="8">
         <f t="shared" si="4"/>
-        <v>101297.49615639095</v>
+        <v>97725.302506313485</v>
       </c>
       <c r="O48" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846983E-2</v>
+        <v>5.4568961748633869E-2</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="5"/>
-        <v>47571.733722166115</v>
+        <v>43999.540072088646</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -5996,8 +5997,8 @@
         <v>0</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="8"/>
-        <v>-1270.4560694744673</v>
+        <f t="shared" si="9"/>
+        <v>-1577.0693577727834</v>
       </c>
       <c r="F49" s="5">
         <f t="shared" si="12"/>
@@ -6023,15 +6024,15 @@
       </c>
       <c r="N49" s="8">
         <f t="shared" si="4"/>
-        <v>104336.42104108272</v>
+        <v>100657.06158150293</v>
       </c>
       <c r="O49" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847003E-2</v>
+        <v>5.456896174863389E-2</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="5"/>
-        <v>48998.885733831106</v>
+        <v>45319.526274251315</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -6049,8 +6050,8 @@
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="8"/>
-        <v>-1308.5697515587015</v>
+        <f t="shared" si="9"/>
+        <v>-1624.381438505967</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="12"/>
@@ -6076,15 +6077,15 @@
       </c>
       <c r="N50" s="8">
         <f t="shared" si="4"/>
-        <v>107466.51367231525</v>
+        <v>103676.77342894807</v>
       </c>
       <c r="O50" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847031E-2</v>
+        <v>5.4568961748633918E-2</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="5"/>
-        <v>50468.852305846034</v>
+        <v>46679.112062478845</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -6102,8 +6103,8 @@
         <v>0</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="8"/>
-        <v>-1347.8268441054624</v>
+        <f t="shared" si="9"/>
+        <v>-1673.112881661146</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="12"/>
@@ -6129,15 +6130,15 @@
       </c>
       <c r="N51" s="8">
         <f t="shared" si="4"/>
-        <v>110690.5090824847</v>
+        <v>106787.07663181651</v>
       </c>
       <c r="O51" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847024E-2</v>
+        <v>5.4568961748633911E-2</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="5"/>
-        <v>51982.917875021412</v>
+        <v>48079.48542435321</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -6155,8 +6156,8 @@
         <v>0</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="8"/>
-        <v>-1388.2616494286262</v>
+        <f t="shared" si="9"/>
+        <v>-1723.3062681109805</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="12"/>
@@ -6182,15 +6183,15 @@
       </c>
       <c r="N52" s="8">
         <f t="shared" si="4"/>
-        <v>114011.22435495931</v>
+        <v>109990.68893077105</v>
       </c>
       <c r="O52" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847052E-2</v>
+        <v>5.4568961748633932E-2</v>
       </c>
       <c r="P52" s="8">
         <f t="shared" si="5"/>
-        <v>53542.405411272062</v>
+        <v>49521.869987083803</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6208,8 +6209,8 @@
         <v>0</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="8"/>
-        <v>-1429.9094989114851</v>
+        <f t="shared" si="9"/>
+        <v>-1775.00545615431</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="12"/>
@@ -6235,15 +6236,15 @@
       </c>
       <c r="N53" s="8">
         <f t="shared" si="4"/>
-        <v>117431.56108560799</v>
+        <v>113290.40959869408</v>
       </c>
       <c r="O53" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846997E-2</v>
+        <v>5.4568961748633876E-2</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="5"/>
-        <v>55148.677573610228</v>
+        <v>51007.526086696322</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -6261,8 +6262,8 @@
         <v>0</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="8"/>
-        <v>-1472.8067838788297</v>
+        <f t="shared" si="9"/>
+        <v>-1828.2556198389393</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="12"/>
@@ -6288,15 +6289,15 @@
       </c>
       <c r="N54" s="8">
         <f t="shared" si="4"/>
-        <v>120954.50791817615</v>
+        <v>116689.12188665484</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846962E-2</v>
+        <v>5.4568961748633849E-2</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="5"/>
-        <v>56803.137900818525</v>
+        <v>52537.751869297208</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6314,8 +6315,8 @@
         <v>0</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="8"/>
-        <v>-1516.9909873951947</v>
+        <f t="shared" si="9"/>
+        <v>-1883.1032884341075</v>
       </c>
       <c r="F55" s="5">
         <f t="shared" si="12"/>
@@ -6341,15 +6342,15 @@
       </c>
       <c r="N55" s="8">
         <f t="shared" si="4"/>
-        <v>124583.14315572137</v>
+        <v>120189.79554325441</v>
       </c>
       <c r="O55" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846934E-2</v>
+        <v>5.4568961748633814E-2</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="5"/>
-        <v>58507.232037843081</v>
+        <v>54113.884425376127</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -6367,8 +6368,8 @@
         <v>0</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="8"/>
-        <v>-1562.5007170170506</v>
+        <f t="shared" si="9"/>
+        <v>-1939.5963870871308</v>
       </c>
       <c r="F56" s="5">
         <f t="shared" si="12"/>
@@ -6394,15 +6395,15 @@
       </c>
       <c r="N56" s="8">
         <f t="shared" si="4"/>
-        <v>128320.6374503933</v>
+        <v>123795.48940955235</v>
       </c>
       <c r="O56" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847066E-2</v>
+        <v>5.4568961748633953E-2</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="5"/>
-        <v>60262.448998978376</v>
+        <v>55737.300958137421</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -6420,8 +6421,8 @@
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="8"/>
-        <v>-1609.3757385275621</v>
+        <f t="shared" si="9"/>
+        <v>-1997.7842786997448</v>
       </c>
       <c r="F57" s="5">
         <f t="shared" si="12"/>
@@ -6447,15 +6448,15 @@
       </c>
       <c r="N57" s="8">
         <f t="shared" si="4"/>
-        <v>132170.25657390489</v>
+        <v>127509.35409183869</v>
       </c>
       <c r="O57" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846969E-2</v>
+        <v>5.4568961748633849E-2</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="5"/>
-        <v>62070.322468947728</v>
+        <v>57409.419986881534</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -6473,8 +6474,8 @@
         <v>0</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="8"/>
-        <v>-1657.657010683389</v>
+        <f t="shared" si="9"/>
+        <v>-2057.7178070607374</v>
       </c>
       <c r="F58" s="5">
         <f t="shared" si="12"/>
@@ -6500,15 +6501,15 @@
       </c>
       <c r="N58" s="8">
         <f t="shared" si="4"/>
-        <v>136135.36427112194</v>
+        <v>131334.63471459376</v>
       </c>
       <c r="O58" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846927E-2</v>
+        <v>5.4568961748633814E-2</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="5"/>
-        <v>63932.432143016165</v>
+        <v>59131.702586487983</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6526,8 +6527,8 @@
         <v>0</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="8"/>
-        <v>-1707.3867210038907</v>
+        <f t="shared" si="9"/>
+        <v>-2119.4493412725596</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="12"/>
@@ -6553,15 +6554,15 @@
       </c>
       <c r="N59" s="8">
         <f t="shared" si="4"/>
-        <v>140219.4251992557</v>
+        <v>135274.67375603167</v>
       </c>
       <c r="O59" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846969E-2</v>
+        <v>5.4568961748633849E-2</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="5"/>
-        <v>65850.405107306651</v>
+        <v>60905.653664082623</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6579,8 +6580,8 @@
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="8"/>
-        <v>-1758.6083226340074</v>
+        <f t="shared" si="9"/>
+        <v>-2183.0328215107365</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="12"/>
@@ -6606,15 +6607,15 @@
       </c>
       <c r="N60" s="8">
         <f t="shared" si="4"/>
-        <v>144426.00795523365</v>
+        <v>139332.91396871291</v>
       </c>
       <c r="O60" s="12">
         <f t="shared" si="6"/>
-        <v>5.656364371584708E-2</v>
+        <v>5.4568961748633966E-2</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="5"/>
-        <v>67825.917260525835</v>
+        <v>62732.823274005103</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6632,8 +6633,8 @@
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="8"/>
-        <v>-1811.3665723130277</v>
+        <f t="shared" si="9"/>
+        <v>-2248.5238061560585</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="12"/>
@@ -6659,15 +6660,15 @@
       </c>
       <c r="N61" s="8">
         <f t="shared" si="4"/>
-        <v>148758.78819389065</v>
+        <v>143512.90138777427</v>
       </c>
       <c r="O61" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847073E-2</v>
+        <v>5.4568961748633953E-2</v>
       </c>
       <c r="P61" s="8">
         <f t="shared" si="5"/>
-        <v>69860.694778341625</v>
+        <v>64614.807972225244</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6685,8 +6686,8 @@
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="8"/>
-        <v>-1865.7075694824186</v>
+        <f t="shared" si="9"/>
+        <v>-2315.9795203407402</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" si="12"/>
@@ -6712,15 +6713,15 @@
       </c>
       <c r="N62" s="8">
         <f t="shared" si="4"/>
-        <v>153221.55183970736</v>
+        <v>147818.28842940749</v>
       </c>
       <c r="O62" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847059E-2</v>
+        <v>5.4568961748633939E-2</v>
       </c>
       <c r="P62" s="8">
         <f t="shared" si="5"/>
-        <v>71956.515621691869</v>
+        <v>66553.252211392013</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6738,8 +6739,8 @@
         <v>0</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="8"/>
-        <v>-1921.6787965668912</v>
+        <f t="shared" si="9"/>
+        <v>-2385.4589059509626</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="12"/>
@@ -6765,15 +6766,15 @@
       </c>
       <c r="N63" s="8">
         <f t="shared" si="4"/>
-        <v>157818.19839489833</v>
+        <v>152252.83708228948</v>
       </c>
       <c r="O63" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846962E-2</v>
+        <v>5.4568961748633855E-2</v>
       </c>
       <c r="P63" s="8">
         <f t="shared" si="5"/>
-        <v>74115.211090342622</v>
+        <v>68549.849777733762</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6791,8 +6792,8 @@
         <v>0</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="8"/>
-        <v>-1979.329160463898</v>
+        <f t="shared" si="9"/>
+        <v>-2457.0226731294915</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="12"/>
@@ -6818,15 +6819,15 @@
       </c>
       <c r="N64" s="8">
         <f t="shared" si="4"/>
-        <v>162552.74434674549</v>
+        <v>156820.42219475837</v>
       </c>
       <c r="O64" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847038E-2</v>
+        <v>5.4568961748633925E-2</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" si="5"/>
-        <v>76338.667423052902</v>
+        <v>70606.345271065788</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6844,8 +6845,8 @@
         <v>0</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="8"/>
-        <v>-2038.709035277815</v>
+        <f t="shared" si="9"/>
+        <v>-2530.7333533233764</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="12"/>
@@ -6871,15 +6872,15 @@
       </c>
       <c r="N65" s="8">
         <f t="shared" si="4"/>
-        <v>167429.32667714771</v>
+        <v>161525.03486060098</v>
       </c>
       <c r="O65" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846983E-2</v>
+        <v>5.4568961748633869E-2</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" si="5"/>
-        <v>78628.827445744493</v>
+        <v>72724.535629197751</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6897,8 +6898,8 @@
         <v>0</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="8"/>
-        <v>-2099.8703063361495</v>
+        <f t="shared" si="9"/>
+        <v>-2606.6553539230777</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="12"/>
@@ -6924,15 +6925,15 @@
       </c>
       <c r="N66" s="8">
         <f t="shared" si="4"/>
-        <v>172452.20647746202</v>
+        <v>166370.78590641893</v>
       </c>
       <c r="O66" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715846948E-2</v>
+        <v>5.4568961748633842E-2</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="5"/>
-        <v>80987.692269116829</v>
+        <v>74906.271698073702</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -6950,8 +6951,8 @@
         <v>0</v>
       </c>
       <c r="E67" s="5">
-        <f t="shared" si="8"/>
-        <v>-2162.8664155262341</v>
+        <f t="shared" si="9"/>
+        <v>-2684.8550145407698</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="12"/>
@@ -6977,15 +6978,15 @@
       </c>
       <c r="N67" s="8">
         <f t="shared" si="4"/>
-        <v>177625.77267178614</v>
+        <v>171361.9094836117</v>
       </c>
       <c r="O67" s="12">
         <f t="shared" si="6"/>
-        <v>5.6563643715847024E-2</v>
+        <v>5.4568961748633911E-2</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" ref="P67:P71" si="15">12*(C67+D67+E67+F67+G67)+H67</f>
-        <v>83417.323037190363</v>
+        <v>77153.459849015926</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -7004,7 +7005,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" ref="E68:E71" si="16">E67*(1+B68)</f>
-        <v>-2227.7524079920213</v>
+        <v>-2765.4006649769931</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="12"/>
@@ -7030,15 +7031,15 @@
       </c>
       <c r="N68" s="8">
         <f t="shared" ref="N68:N71" si="17">M68-M67+12*(C68+D68+E68+F68+G68)+H68</f>
-        <v>182954.54585193979</v>
+        <v>176502.76676812014</v>
       </c>
       <c r="O68" s="12">
         <f t="shared" ref="O68:O71" si="18">N68/M67</f>
-        <v>5.6563643715847045E-2</v>
+        <v>5.4568961748633932E-2</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" si="15"/>
-        <v>85919.842728306045</v>
+        <v>79468.063644486392</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -7057,7 +7058,7 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="16"/>
-        <v>-2294.5849802317821</v>
+        <v>-2848.3626849263028</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="12"/>
@@ -7083,15 +7084,15 @@
       </c>
       <c r="N69" s="8">
         <f t="shared" si="17"/>
-        <v>188443.18222749792</v>
+        <v>181797.84977116366</v>
       </c>
       <c r="O69" s="12">
         <f t="shared" si="18"/>
-        <v>5.6563643715847024E-2</v>
+        <v>5.4568961748633904E-2</v>
       </c>
       <c r="P69" s="8">
         <f t="shared" si="15"/>
-        <v>88497.438010155223</v>
+        <v>81852.105553820977</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -7110,7 +7111,7 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="16"/>
-        <v>-2363.4225296387358</v>
+        <v>-2933.8135654740918</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="12"/>
@@ -7136,15 +7137,15 @@
       </c>
       <c r="N70" s="8">
         <f t="shared" si="17"/>
-        <v>194096.47769432288</v>
+        <v>187251.78526429858</v>
       </c>
       <c r="O70" s="12">
         <f t="shared" si="18"/>
-        <v>5.6563643715847024E-2</v>
+        <v>5.4568961748633904E-2</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" si="15"/>
-        <v>91152.361150459896</v>
+        <v>84307.668720435613</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -7163,7 +7164,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="16"/>
-        <v>-2434.3252055278981</v>
+        <v>-3021.8279724383146</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="12"/>
@@ -7189,15 +7190,15 @@
       </c>
       <c r="N71" s="8">
         <f t="shared" si="17"/>
-        <v>199919.37202515229</v>
+        <v>192869.33882222729</v>
       </c>
       <c r="O71" s="12">
         <f t="shared" si="18"/>
-        <v>5.6563643715846941E-2</v>
+        <v>5.4568961748633828E-2</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="15"/>
-        <v>93886.931984973693</v>
+        <v>86836.898782048695</v>
       </c>
     </row>
   </sheetData>

--- a/excel/02/1420 Terry - 4 - Appreciation.xlsx
+++ b/excel/02/1420 Terry - 4 - Appreciation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/github/benofben/the_intelligent_property_investor/excel/02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7080DD8D-4649-944A-9CC2-993D1C6C61F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28F1A62-5AB9-0C43-9CFF-BFEB7E3E0310}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6B2BACE4-D29B-AC4D-90BF-6B88B76DFC11}"/>
   </bookViews>
@@ -468,109 +468,109 @@
                   <c:v>254383.68589562771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278360.80624028342</c:v>
+                  <c:v>368389.80624028342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>303099.03198099724</c:v>
+                  <c:v>395828.90198099724</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328622.68268612714</c:v>
+                  <c:v>424134.44878612715</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>354956.86037803092</c:v>
+                  <c:v>453333.97946103092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>382127.47488700261</c:v>
+                  <c:v>483455.9075424925</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>410161.27003270423</c:v>
+                  <c:v>514529.5556678588</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>439085.85066029528</c:v>
+                  <c:v>546585.1848645045</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>468929.71055936639</c:v>
+                  <c:v>579654.02478970191</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>499722.26129471022</c:v>
+                  <c:v>613768.3049519558</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>531493.861978926</c:v>
+                  <c:v>648961.28694588901</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>564275.85001785075</c:v>
+                  <c:v>685267.29773382237</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>598100.57286083105</c:v>
+                  <c:v>722721.76400828199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>633001.42078891792</c:v>
+                  <c:v>761361.24767079228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>669012.86077515746</c:v>
+                  <c:v>801223.48246348824</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>706170.47145228775</c:v>
+                  <c:v>842347.4117912685</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>744510.97922432155</c:v>
+                  <c:v>884773.22777347174</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>784072.29555970384</c:v>
+                  <c:v>928542.41156532848</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>824893.55550498806</c:v>
+                  <c:v>973697.77499078156</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>867015.15745926229</c:v>
+                  <c:v>1020283.5035296296</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>910478.80425089307</c:v>
+                  <c:v>1068345.2007033713</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>955327.54555954156</c:v>
+                  <c:v>1117929.9339055943</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1001605.8217278217</c:v>
+                  <c:v>1169086.281724256</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1049359.5090084553</c:v>
+                  <c:v>1221864.3828047826</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1098635.9662942952</c:v>
+                  <c:v>1276315.9863045122</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1149484.0833801648</c:v>
+                  <c:v>1332494.5039906884</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1183968.6058815697</c:v>
+                  <c:v>1372469.3391104091</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1219487.6640580168</c:v>
+                  <c:v>1413643.4192837214</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1256072.2939797575</c:v>
+                  <c:v>1456052.721862233</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1293754.4627991503</c:v>
+                  <c:v>1499734.3035180999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1332567.0966831248</c:v>
+                  <c:v>1544726.3326236429</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1372544.1095836186</c:v>
+                  <c:v>1591068.1226023522</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1413720.4328711273</c:v>
+                  <c:v>1638800.1662804228</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1456132.0458572612</c:v>
+                  <c:v>1687964.1712688357</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1499816.0072329789</c:v>
+                  <c:v>1738603.0964069008</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1544810.4874499682</c:v>
+                  <c:v>1790761.1892991078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,109 +779,109 @@
                   <c:v>0.4273276876787328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.878859838044647E-2</c:v>
+                  <c:v>0.42466606797074841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2691140956281671E-2</c:v>
+                  <c:v>6.3213512496291785E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1540849230753522E-2</c:v>
+                  <c:v>6.2311070509610544E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1124952966037241E-2</c:v>
+                  <c:v>6.9707071071325399E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9450362207871971E-2</c:v>
+                  <c:v>6.844740999448945E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7962925738868682E-2</c:v>
+                  <c:v>6.7306003615027921E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6633272955834585E-2</c:v>
+                  <c:v>6.6267216070504856E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5437866666176972E-2</c:v>
+                  <c:v>6.5318046150132286E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.4357623223168778E-2</c:v>
+                  <c:v>6.4447594705670824E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.337690665209926E-2</c:v>
+                  <c:v>6.3646656239119206E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2482783620051649E-2</c:v>
+                  <c:v>6.2907402152637931E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1664463603048621E-2</c:v>
+                  <c:v>6.2223132525187436E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0912872678797088E-2</c:v>
+                  <c:v>6.158807972169713E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.02203251580418E-2</c:v>
+                  <c:v>6.0997251632235974E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9580267817412186E-2</c:v>
+                  <c:v>6.0446305514934941E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8987078672021895E-2</c:v>
+                  <c:v>5.9931445691945827E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8435907185132821E-2</c:v>
+                  <c:v>5.9449339997524754E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.792254629031849E-2</c:v>
+                  <c:v>5.8997051087049182E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.7443329074345718E-2</c:v>
+                  <c:v>5.8571979611980886E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.6995044749302039E-2</c:v>
+                  <c:v>5.8171816936316532E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.65748698392761E-2</c:v>
+                  <c:v>5.7794505576288728E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.6180311461770362E-2</c:v>
+                  <c:v>5.7438205930560961E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.5809160294362822E-2</c:v>
+                  <c:v>5.7101268164094776E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.5459451350519516E-2</c:v>
+                  <c:v>5.6782208337735278E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.5129431092611411E-2</c:v>
+                  <c:v>5.647968805389679E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4568961748633793E-2</c:v>
+                  <c:v>5.5978068432694629E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.4568961748633932E-2</c:v>
+                  <c:v>5.5978068432694504E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.4568961748633953E-2</c:v>
+                  <c:v>5.5978068432694546E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4568961748633925E-2</c:v>
+                  <c:v>5.5978068432694504E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.4568961748633862E-2</c:v>
+                  <c:v>5.5978068432694497E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.4568961748633918E-2</c:v>
+                  <c:v>5.597806843269456E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.4568961748633946E-2</c:v>
+                  <c:v>5.5978068432694601E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.4568961748633925E-2</c:v>
+                  <c:v>5.5978068432694636E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.4568961748633814E-2</c:v>
+                  <c:v>5.5978068432694587E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.4568961748633821E-2</c:v>
+                  <c:v>5.5978068432694525E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,109 +1385,109 @@
                   <c:v>-8691.4900000000016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9022.260000000002</c:v>
+                  <c:v>-5978.0006994535479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7287.469200000005</c:v>
+                  <c:v>-4151.8821204371579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6870.6788760000036</c:v>
+                  <c:v>-3641.0241840502695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2960.9048422800061</c:v>
+                  <c:v>365.63949042821878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2518.7319875484027</c:v>
+                  <c:v>907.60867514106212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2063.2939471748541</c:v>
+                  <c:v>1465.8369353952949</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1594.1927655901</c:v>
+                  <c:v>2040.8120434571574</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1111.0185485578058</c:v>
+                  <c:v>2633.0364047608709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-613.34910501453669</c:v>
+                  <c:v>3243.0274969037</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-100.7495781649759</c:v>
+                  <c:v>3871.3183218108079</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>427.22793449007804</c:v>
+                  <c:v>4518.4578714651361</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>971.04477252478682</c:v>
+                  <c:v>5185.0116076090926</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1531.1761157005221</c:v>
+                  <c:v>5871.5619558373619</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2108.1113991715429</c:v>
+                  <c:v>6578.708814512489</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2702.354741146688</c:v>
+                  <c:v>7307.0700789478651</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3314.425383381089</c:v>
+                  <c:v>8057.2821813163046</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3944.8581448825153</c:v>
+                  <c:v>8830.0006467557869</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4594.2038892289966</c:v>
+                  <c:v>9625.9006661584608</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5263.0300059058609</c:v>
+                  <c:v>10445.677686143215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5951.9209060830344</c:v>
+                  <c:v>11290.048016727507</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6661.4785332655265</c:v>
+                  <c:v>12159.749457229331</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7392.3228892634907</c:v>
+                  <c:v>13055.541940946212</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8145.0925759413985</c:v>
+                  <c:v>13978.208199174598</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8920.4453532196421</c:v>
+                  <c:v>14928.554445149844</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9719.0587138162373</c:v>
+                  <c:v>15907.411078504341</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28241.630475230726</c:v>
+                  <c:v>34615.63341085946</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29088.879389487643</c:v>
+                  <c:v>35654.102413185254</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29961.545771172277</c:v>
+                  <c:v>36723.725485580813</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30860.392144307447</c:v>
+                  <c:v>37825.437250148243</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>31786.203908636664</c:v>
+                  <c:v>38960.200367652687</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32739.790025895774</c:v>
+                  <c:v>40129.006378682272</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>33721.983726672639</c:v>
+                  <c:v>41332.876570042747</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34733.643238472832</c:v>
+                  <c:v>42572.862867144031</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35775.652535627014</c:v>
+                  <c:v>43850.048753158357</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36848.922111695829</c:v>
+                  <c:v>45165.550215753115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96533-4FC3-8F4F-BA09-1D518A28119D}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3565,7 +3565,8 @@
         <v>2018</v>
       </c>
       <c r="B8" s="17">
-        <v>0.03</v>
+        <f>L8/L7-1</f>
+        <v>0.19398724954462665</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" ref="C8:C32" si="7">C7</f>
@@ -3580,11 +3581,11 @@
       </c>
       <c r="F8" s="18">
         <f t="shared" ref="F8:F34" si="8">F7*(1+B8)</f>
-        <v>-569.59</v>
+        <v>-660.2749489981785</v>
       </c>
       <c r="G8" s="18">
         <f>G7*(1+B8)</f>
-        <v>2163</v>
+        <v>2507.3732240437162</v>
       </c>
       <c r="H8" s="18">
         <v>-1330.14</v>
@@ -3602,24 +3603,23 @@
         <v>-287109.19375971658</v>
       </c>
       <c r="L8" s="18">
-        <f>L7*(1+B8)</f>
-        <v>565470</v>
+        <v>655499</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" si="3"/>
-        <v>278360.80624028342</v>
+        <v>368389.80624028342</v>
       </c>
       <c r="N8" s="21">
         <f>M8-M7+12*(C8+D8+E8+F8+G8)+H8</f>
-        <v>14954.860344655703</v>
+        <v>108028.11964520215</v>
       </c>
       <c r="O8" s="22">
         <f t="shared" si="6"/>
-        <v>5.878859838044647E-2</v>
+        <v>0.42466606797074841</v>
       </c>
       <c r="P8" s="21">
         <f t="shared" si="5"/>
-        <v>-9022.260000000002</v>
+        <v>-5978.0006994535479</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,6 @@
         <v>2019</v>
       </c>
       <c r="B9" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C9" s="5">
@@ -3638,16 +3637,16 @@
         <v>-290.04000000000002</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" ref="E8:E67" si="9">E8*(1+B9)</f>
+        <f t="shared" ref="E9:E67" si="9">E8*(1+B9)</f>
         <v>-483.46140000000008</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="8"/>
-        <v>-586.67770000000007</v>
+        <v>-680.0831974681239</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" ref="G9:G71" si="10">G8*(1+B9)</f>
-        <v>2227.89</v>
+        <v>2582.5944207650277</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
@@ -3666,23 +3665,23 @@
       </c>
       <c r="L9" s="5">
         <f t="shared" ref="L9:L34" si="11">L8*(1+B9)</f>
-        <v>582434.1</v>
+        <v>675163.97</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="3"/>
-        <v>303099.03198099724</v>
+        <v>395828.90198099724</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="4"/>
-        <v>17450.756540713817</v>
+        <v>23287.213620276663</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="6"/>
-        <v>6.2691140956281671E-2</v>
+        <v>6.3213512496291785E-2</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" si="5"/>
-        <v>-7287.469200000005</v>
+        <v>-4151.8821204371579</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3690,7 +3689,6 @@
         <v>2020</v>
       </c>
       <c r="B10" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C10" s="5">
@@ -3706,11 +3704,11 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="8"/>
-        <v>-604.27803100000006</v>
+        <v>-700.4856933921676</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="10"/>
-        <v>2294.7266999999997</v>
+        <v>2660.0722533879784</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -3729,23 +3727,23 @@
       </c>
       <c r="L10" s="5">
         <f t="shared" si="11"/>
-        <v>599907.12300000002</v>
+        <v>695418.88910000003</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="3"/>
-        <v>328622.68268612714</v>
+        <v>424134.44878612715</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="4"/>
-        <v>18652.971829129892</v>
+        <v>24664.522621079639</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="6"/>
-        <v>6.1540849230753522E-2</v>
+        <v>6.2311070509610544E-2</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" si="5"/>
-        <v>-6870.6788760000036</v>
+        <v>-3641.0241840502695</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -3753,7 +3751,6 @@
         <v>2021</v>
       </c>
       <c r="B11" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C11" s="5">
@@ -3769,11 +3766,11 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="8"/>
-        <v>-622.40637193000009</v>
+        <v>-721.50026419393271</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="10"/>
-        <v>2363.5685009999997</v>
+        <v>2739.8744209896176</v>
       </c>
       <c r="H11" s="5">
         <v>0</v>
@@ -3792,23 +3789,23 @@
       </c>
       <c r="L11" s="5">
         <f t="shared" si="11"/>
-        <v>617904.33669000003</v>
+        <v>716281.45577300002</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="3"/>
-        <v>354956.86037803092</v>
+        <v>453333.97946103092</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" si="4"/>
-        <v>23373.272849623776</v>
+        <v>29565.170165331991</v>
       </c>
       <c r="O11" s="12">
         <f t="shared" si="6"/>
-        <v>7.1124952966037241E-2</v>
+        <v>6.9707071071325399E-2</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" si="5"/>
-        <v>-2960.9048422800061</v>
+        <v>365.63949042821878</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3816,7 +3813,6 @@
         <v>2022</v>
       </c>
       <c r="B12" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C12" s="5">
@@ -3832,11 +3828,11 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="8"/>
-        <v>-641.07856308790008</v>
+        <v>-743.14527211975076</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="10"/>
-        <v>2434.47555603</v>
+        <v>2822.0706536193061</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -3855,23 +3851,23 @@
       </c>
       <c r="L12" s="5">
         <f t="shared" si="11"/>
-        <v>636441.4667907001</v>
+        <v>737769.89944618999</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="3"/>
-        <v>382127.47488700261</v>
+        <v>483455.9075424925</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="4"/>
-        <v>24651.882521423286</v>
+        <v>31029.53675660264</v>
       </c>
       <c r="O12" s="12">
         <f t="shared" si="6"/>
-        <v>6.9450362207871971E-2</v>
+        <v>6.844740999448945E-2</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" si="5"/>
-        <v>-2518.7319875484027</v>
+        <v>907.60867514106212</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -3879,7 +3875,6 @@
         <v>2023</v>
       </c>
       <c r="B13" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C13" s="5">
@@ -3895,11 +3890,11 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="8"/>
-        <v>-660.31091998053705</v>
+        <v>-765.43963028334326</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="10"/>
-        <v>2507.5098227109002</v>
+        <v>2906.7327732278854</v>
       </c>
       <c r="H13" s="5">
         <v>0</v>
@@ -3918,23 +3913,23 @@
       </c>
       <c r="L13" s="5">
         <f t="shared" si="11"/>
-        <v>655534.71079442115</v>
+        <v>759902.99642957572</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="3"/>
-        <v>410161.27003270423</v>
+        <v>514529.5556678588</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="4"/>
-        <v>25970.501198526763</v>
+        <v>32539.485060761603</v>
       </c>
       <c r="O13" s="12">
         <f t="shared" si="6"/>
-        <v>6.7962925738868682E-2</v>
+        <v>6.7306003615027921E-2</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="5"/>
-        <v>-2063.2939471748541</v>
+        <v>1465.8369353952949</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -3942,7 +3937,6 @@
         <v>2024</v>
       </c>
       <c r="B14" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C14" s="5">
@@ -3958,11 +3952,11 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="8"/>
-        <v>-680.12024757995323</v>
+        <v>-788.40281919184361</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="10"/>
-        <v>2582.735117392227</v>
+        <v>2993.9347564247223</v>
       </c>
       <c r="H14" s="5">
         <v>0</v>
@@ -3981,23 +3975,23 @@
       </c>
       <c r="L14" s="5">
         <f t="shared" si="11"/>
-        <v>675200.75211825385</v>
+        <v>782700.086322463</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="3"/>
-        <v>439085.85066029528</v>
+        <v>546585.1848645045</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="4"/>
-        <v>27330.387862000956</v>
+        <v>34096.441240102853</v>
       </c>
       <c r="O14" s="12">
         <f t="shared" si="6"/>
-        <v>6.6633272955834585E-2</v>
+        <v>6.6267216070504856E-2</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" si="5"/>
-        <v>-1594.1927655901</v>
+        <v>2040.8120434571574</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -4005,7 +3999,6 @@
         <v>2025</v>
       </c>
       <c r="B15" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C15" s="5">
@@ -4021,11 +4014,11 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="8"/>
-        <v>-700.52385500735181</v>
+        <v>-812.05490376759894</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="10"/>
-        <v>2660.2171709139939</v>
+        <v>3083.7527991174638</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -4044,23 +4037,23 @@
       </c>
       <c r="L15" s="5">
         <f t="shared" si="11"/>
-        <v>695456.77468180144</v>
+        <v>806181.08891213697</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="3"/>
-        <v>468929.71055936639</v>
+        <v>579654.02478970191</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="4"/>
-        <v>28732.841350513299</v>
+        <v>35701.876329958293</v>
       </c>
       <c r="O15" s="12">
         <f t="shared" si="6"/>
-        <v>6.5437866666176972E-2</v>
+        <v>6.5318046150132286E-2</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="5"/>
-        <v>-1111.0185485578058</v>
+        <v>2633.0364047608709</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -4068,7 +4061,6 @@
         <v>2026</v>
       </c>
       <c r="B16" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C16" s="5">
@@ -4084,11 +4076,11 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="8"/>
-        <v>-721.53957065757243</v>
+        <v>-836.41655088062691</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="10"/>
-        <v>2740.0236860414138</v>
+        <v>3176.2653830909881</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -4107,23 +4099,23 @@
       </c>
       <c r="L16" s="5">
         <f t="shared" si="11"/>
-        <v>716320.47792225552</v>
+        <v>830366.5215795011</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="3"/>
-        <v>499722.26129471022</v>
+        <v>613768.3049519558</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="4"/>
-        <v>30179.201630329291</v>
+        <v>37357.307659157581</v>
       </c>
       <c r="O16" s="12">
         <f t="shared" si="6"/>
-        <v>6.4357623223168778E-2</v>
+        <v>6.4447594705670824E-2</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="5"/>
-        <v>-613.34910501453669</v>
+        <v>3243.0274969037</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4131,7 +4123,6 @@
         <v>2027</v>
       </c>
       <c r="B17" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C17" s="5">
@@ -4147,11 +4138,11 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="8"/>
-        <v>-743.18575777729961</v>
+        <v>-861.50904740704573</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="10"/>
-        <v>2822.2243966226565</v>
+        <v>3271.5533445837177</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -4170,23 +4161,23 @@
       </c>
       <c r="L17" s="5">
         <f t="shared" si="11"/>
-        <v>737810.09225992323</v>
+        <v>855277.51722688612</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="3"/>
-        <v>531493.861978926</v>
+        <v>648961.28694588901</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="4"/>
-        <v>31670.851106050803</v>
+        <v>39064.300315744018</v>
       </c>
       <c r="O17" s="12">
         <f t="shared" si="6"/>
-        <v>6.337690665209926E-2</v>
+        <v>6.3646656239119206E-2</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="5"/>
-        <v>-100.7495781649759</v>
+        <v>3871.3183218108079</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4194,7 +4185,6 @@
         <v>2028</v>
       </c>
       <c r="B18" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C18" s="5">
@@ -4210,11 +4200,11 @@
       </c>
       <c r="F18" s="5">
         <f t="shared" si="8"/>
-        <v>-765.48133051061859</v>
+        <v>-887.35431882925707</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="10"/>
-        <v>2906.8911285213362</v>
+        <v>3369.6999449212294</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -4233,23 +4223,23 @@
       </c>
       <c r="L18" s="5">
         <f t="shared" si="11"/>
-        <v>759944.39502772095</v>
+        <v>880935.84274369269</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="3"/>
-        <v>564275.85001785075</v>
+        <v>685267.29773382237</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="4"/>
-        <v>33209.21597341483</v>
+        <v>40824.468659398502</v>
       </c>
       <c r="O18" s="12">
         <f t="shared" si="6"/>
-        <v>6.2482783620051649E-2</v>
+        <v>6.2907402152637931E-2</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="5"/>
-        <v>427.22793449007804</v>
+        <v>4518.4578714651361</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4257,7 +4247,6 @@
         <v>2029</v>
       </c>
       <c r="B19" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C19" s="5">
@@ -4273,11 +4262,11 @@
       </c>
       <c r="F19" s="5">
         <f t="shared" si="8"/>
-        <v>-788.44577042593721</v>
+        <v>-913.9749483941348</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="10"/>
-        <v>2994.0978623769765</v>
+        <v>3470.7909432688666</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -4296,23 +4285,23 @@
       </c>
       <c r="L19" s="5">
         <f t="shared" si="11"/>
-        <v>782742.72687855258</v>
+        <v>907363.91802600352</v>
       </c>
       <c r="M19" s="5">
         <f t="shared" si="3"/>
-        <v>598100.57286083105</v>
+        <v>722721.76400828199</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="4"/>
-        <v>34795.767615505079</v>
+        <v>42639.477882068706</v>
       </c>
       <c r="O19" s="12">
         <f t="shared" si="6"/>
-        <v>6.1664463603048621E-2</v>
+        <v>6.2223132525187436E-2</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="5"/>
-        <v>971.04477252478682</v>
+        <v>5185.0116076090926</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4320,7 +4309,6 @@
         <v>2030</v>
       </c>
       <c r="B20" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C20" s="5">
@@ -4336,11 +4324,11 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="8"/>
-        <v>-812.09914353871534</v>
+        <v>-941.39419684595885</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="10"/>
-        <v>3083.9207982482858</v>
+        <v>3574.9146715669326</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -4359,23 +4347,23 @@
       </c>
       <c r="L20" s="5">
         <f t="shared" si="11"/>
-        <v>806225.0086849092</v>
+        <v>934584.83556678367</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="3"/>
-        <v>633001.42078891792</v>
+        <v>761361.24767079228</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="4"/>
-        <v>36432.024043787402</v>
+        <v>44511.045618347649</v>
       </c>
       <c r="O20" s="12">
         <f t="shared" si="6"/>
-        <v>6.0912872678797088E-2</v>
+        <v>6.158807972169713E-2</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="5"/>
-        <v>1531.1761157005221</v>
+        <v>5871.5619558373619</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4383,7 +4371,6 @@
         <v>2031</v>
       </c>
       <c r="B21" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C21" s="5">
@@ -4399,11 +4386,11 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="8"/>
-        <v>-836.46211784487684</v>
+        <v>-969.63602275133769</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="10"/>
-        <v>3176.4384221957343</v>
+        <v>3682.1621117139407</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -4422,23 +4409,23 @@
       </c>
       <c r="L21" s="7">
         <f t="shared" si="11"/>
-        <v>830411.75894545647</v>
+        <v>962622.38063378725</v>
       </c>
       <c r="M21" s="7">
         <f t="shared" si="3"/>
-        <v>669012.86077515746</v>
+        <v>801223.48246348824</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" si="4"/>
-        <v>38119.551385411076</v>
+        <v>46440.94360720845</v>
       </c>
       <c r="O21" s="12">
         <f t="shared" si="6"/>
-        <v>6.02203251580418E-2</v>
+        <v>6.0997251632235974E-2</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="5"/>
-        <v>2108.1113991715429</v>
+        <v>6578.708814512489</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -4446,7 +4433,6 @@
         <v>2032</v>
       </c>
       <c r="B22" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C22" s="5">
@@ -4462,11 +4448,11 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="8"/>
-        <v>-861.55598138022322</v>
+        <v>-998.72510343387785</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="10"/>
-        <v>3271.7315748616065</v>
+        <v>3792.6269750653591</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -4485,23 +4471,23 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="11"/>
-        <v>855324.11171382014</v>
+        <v>991501.05205280089</v>
       </c>
       <c r="M22" s="7">
         <f t="shared" si="3"/>
-        <v>706170.47145228775</v>
+        <v>842347.4117912685</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="4"/>
-        <v>39859.965418276974</v>
+        <v>48430.99940672813</v>
       </c>
       <c r="O22" s="12">
         <f t="shared" si="6"/>
-        <v>5.9580267817412186E-2</v>
+        <v>6.0446305514934941E-2</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="5"/>
-        <v>2702.354741146688</v>
+        <v>7307.0700789478651</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -4509,7 +4495,6 @@
         <v>2033</v>
       </c>
       <c r="B23" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C23" s="5">
@@ -4525,11 +4510,11 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="8"/>
-        <v>-887.40266082162998</v>
+        <v>-1028.6868565368943</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="10"/>
-        <v>3369.8835221074546</v>
+        <v>3906.40578431732</v>
       </c>
       <c r="H23" s="5">
         <v>0</v>
@@ -4548,23 +4533,23 @@
       </c>
       <c r="L23" s="7">
         <f t="shared" si="11"/>
-        <v>880983.8350652348</v>
+        <v>1021246.083614385</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="3"/>
-        <v>744510.97922432155</v>
+        <v>884773.22777347174</v>
       </c>
       <c r="N23" s="8">
         <f t="shared" si="4"/>
-        <v>41654.933155414888</v>
+        <v>50483.098163519535</v>
       </c>
       <c r="O23" s="12">
         <f t="shared" si="6"/>
-        <v>5.8987078672021895E-2</v>
+        <v>5.9931445691945827E-2</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="5"/>
-        <v>3314.425383381089</v>
+        <v>8057.2821813163046</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -4572,7 +4557,6 @@
         <v>2034</v>
       </c>
       <c r="B24" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C24" s="5">
@@ -4588,11 +4572,11 @@
       </c>
       <c r="F24" s="5">
         <f t="shared" si="8"/>
-        <v>-914.02474064627893</v>
+        <v>-1059.5474622330012</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="10"/>
-        <v>3470.9800277706781</v>
+        <v>4023.5979578468396</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
@@ -4611,23 +4595,23 @@
       </c>
       <c r="L24" s="7">
         <f t="shared" si="11"/>
-        <v>907413.35011719191</v>
+        <v>1051883.4661228165</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="3"/>
-        <v>784072.29555970384</v>
+        <v>928542.41156532848</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" si="4"/>
-        <v>43506.174480264803</v>
+        <v>52599.18443861253</v>
       </c>
       <c r="O24" s="12">
         <f t="shared" si="6"/>
-        <v>5.8435907185132821E-2</v>
+        <v>5.9449339997524754E-2</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="5"/>
-        <v>3944.8581448825153</v>
+        <v>8830.0006467557869</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -4635,7 +4619,6 @@
         <v>2035</v>
       </c>
       <c r="B25" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C25" s="5">
@@ -4651,11 +4634,11 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" si="8"/>
-        <v>-941.44548286566737</v>
+        <v>-1091.3338860999913</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="10"/>
-        <v>3575.1094286037987</v>
+        <v>4144.3058965822447</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -4674,23 +4657,23 @@
       </c>
       <c r="L25" s="7">
         <f t="shared" si="11"/>
-        <v>934635.75062070764</v>
+        <v>1083439.9701065011</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="3"/>
-        <v>824893.55550498806</v>
+        <v>973697.77499078156</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" si="4"/>
-        <v>45415.463834513226</v>
+        <v>54781.264091611534</v>
       </c>
       <c r="O25" s="12">
         <f t="shared" si="6"/>
-        <v>5.792254629031849E-2</v>
+        <v>5.8997051087049182E-2</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="5"/>
-        <v>4594.2038892289966</v>
+        <v>9625.9006661584608</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -4698,7 +4681,6 @@
         <v>2036</v>
       </c>
       <c r="B26" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C26" s="5">
@@ -4714,11 +4696,11 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="8"/>
-        <v>-969.68884735163738</v>
+        <v>-1124.073902682991</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="10"/>
-        <v>3682.3627114619126</v>
+        <v>4268.6350734797124</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -4737,23 +4719,23 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="11"/>
-        <v>962674.82313932886</v>
+        <v>1115943.1692096961</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="3"/>
-        <v>867015.15745926229</v>
+        <v>1020283.5035296296</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" si="4"/>
-        <v>47384.631960180093</v>
+        <v>57031.406224991209</v>
       </c>
       <c r="O26" s="12">
         <f t="shared" si="6"/>
-        <v>5.7443329074345718E-2</v>
+        <v>5.8571979611980886E-2</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="5"/>
-        <v>5263.0300059058609</v>
+        <v>10445.677686143215</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -4761,7 +4743,6 @@
         <v>2037</v>
       </c>
       <c r="B27" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C27" s="5">
@@ -4777,11 +4758,11 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="8"/>
-        <v>-998.77951277218654</v>
+        <v>-1157.7961197634809</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="10"/>
-        <v>3792.83359280577</v>
+        <v>4396.6941256841037</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -4800,23 +4781,23 @@
       </c>
       <c r="L27" s="7">
         <f t="shared" si="11"/>
-        <v>991555.06783350871</v>
+        <v>1149421.464285987</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="3"/>
-        <v>910478.80425089307</v>
+        <v>1068345.2007033713</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" si="4"/>
-        <v>49415.567697713806</v>
+        <v>59351.745190469272</v>
       </c>
       <c r="O27" s="12">
         <f t="shared" si="6"/>
-        <v>5.6995044749302039E-2</v>
+        <v>5.8171816936316532E-2</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="5"/>
-        <v>5951.9209060830344</v>
+        <v>11290.048016727507</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -4824,7 +4805,6 @@
         <v>2038</v>
       </c>
       <c r="B28" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C28" s="5">
@@ -4840,11 +4820,11 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="8"/>
-        <v>-1028.7428981553521</v>
+        <v>-1192.5300033563854</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="10"/>
-        <v>3906.6186005899431</v>
+        <v>4528.5949494546267</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -4863,23 +4843,23 @@
       </c>
       <c r="L28" s="7">
         <f t="shared" si="11"/>
-        <v>1021301.719868514</v>
+        <v>1183904.1082145667</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="3"/>
-        <v>955327.54555954156</v>
+        <v>1117929.9339055943</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" si="4"/>
-        <v>51510.219841914019</v>
+        <v>61744.482659452297</v>
       </c>
       <c r="O28" s="12">
         <f t="shared" si="6"/>
-        <v>5.65748698392761E-2</v>
+        <v>5.7794505576288728E-2</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="5"/>
-        <v>6661.4785332655265</v>
+        <v>12159.749457229331</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4887,7 +4867,6 @@
         <v>2039</v>
       </c>
       <c r="B29" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C29" s="5">
@@ -4903,11 +4882,11 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" si="8"/>
-        <v>-1059.6051851000127</v>
+        <v>-1228.305903457077</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="10"/>
-        <v>4023.8171586076414</v>
+        <v>4664.4527979382656</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -4926,23 +4905,23 @@
       </c>
       <c r="L29" s="7">
         <f t="shared" si="11"/>
-        <v>1051940.7714645695</v>
+        <v>1219421.2314610037</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="3"/>
-        <v>1001605.8217278217</v>
+        <v>1169086.281724256</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" si="4"/>
-        <v>53670.599057543659</v>
+        <v>64211.889759607926</v>
       </c>
       <c r="O29" s="12">
         <f t="shared" si="6"/>
-        <v>5.6180311461770362E-2</v>
+        <v>5.7438205930560961E-2</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="5"/>
-        <v>7392.3228892634907</v>
+        <v>13055.541940946212</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
@@ -4950,7 +4929,6 @@
         <v>2040</v>
       </c>
       <c r="B30" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C30" s="5">
@@ -4966,11 +4944,11 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" si="8"/>
-        <v>-1091.3933406530132</v>
+        <v>-1265.1550805607892</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="10"/>
-        <v>4144.531673365871</v>
+        <v>4804.3863818764139</v>
       </c>
       <c r="H30" s="5">
         <v>0</v>
@@ -4989,23 +4967,23 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="11"/>
-        <v>1083498.9946085066</v>
+        <v>1256003.8684048338</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="3"/>
-        <v>1049359.5090084553</v>
+        <v>1221864.3828047826</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" si="4"/>
-        <v>55898.779856574998</v>
+        <v>66756.309279701192</v>
       </c>
       <c r="O30" s="12">
         <f t="shared" si="6"/>
-        <v>5.5809160294362822E-2</v>
+        <v>5.7101268164094776E-2</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="5"/>
-        <v>8145.0925759413985</v>
+        <v>13978.208199174598</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -5013,7 +4991,6 @@
         <v>2041</v>
       </c>
       <c r="B31" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C31" s="5">
@@ -5029,11 +5006,11 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" si="8"/>
-        <v>-1124.1351408726036</v>
+        <v>-1303.109732977613</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="10"/>
-        <v>4268.8676235668472</v>
+        <v>4948.5179733327068</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
@@ -5052,23 +5029,23 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" si="11"/>
-        <v>1116003.9644467619</v>
+        <v>1293683.984456979</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="3"/>
-        <v>1098635.9662942952</v>
+        <v>1276315.9863045122</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="4"/>
-        <v>58196.902639059474</v>
+        <v>69380.157944879495</v>
       </c>
       <c r="O31" s="12">
         <f t="shared" si="6"/>
-        <v>5.5459451350519516E-2</v>
+        <v>5.6782208337735278E-2</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="5"/>
-        <v>8920.4453532196421</v>
+        <v>14928.554445149844</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
@@ -5076,7 +5053,6 @@
         <v>2042</v>
       </c>
       <c r="B32" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C32" s="5">
@@ -5092,11 +5068,11 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" si="8"/>
-        <v>-1157.8591950987818</v>
+        <v>-1342.2030249669415</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="10"/>
-        <v>4396.9336522738531</v>
+        <v>5096.9735125326879</v>
       </c>
       <c r="H32" s="5">
         <v>0</v>
@@ -5115,23 +5091,23 @@
       </c>
       <c r="L32" s="7">
         <f t="shared" si="11"/>
-        <v>1149484.0833801648</v>
+        <v>1332494.5039906884</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="3"/>
-        <v>1149484.0833801648</v>
+        <v>1332494.5039906884</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="4"/>
-        <v>60567.175799685894</v>
+        <v>72085.928764680459</v>
       </c>
       <c r="O32" s="12">
         <f t="shared" si="6"/>
-        <v>5.5129431092611411E-2</v>
+        <v>5.647968805389679E-2</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="5"/>
-        <v>9719.0587138162373</v>
+        <v>15907.411078504341</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -5139,7 +5115,6 @@
         <v>2043</v>
       </c>
       <c r="B33" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C33" s="5">
@@ -5154,11 +5129,11 @@
       </c>
       <c r="F33" s="5">
         <f t="shared" si="8"/>
-        <v>-1192.5949709517454</v>
+        <v>-1382.4691157159498</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="10"/>
-        <v>4528.8416618420688</v>
+        <v>5249.8827179086684</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -5168,23 +5143,23 @@
       </c>
       <c r="L33" s="7">
         <f t="shared" si="11"/>
-        <v>1183968.6058815697</v>
+        <v>1372469.3391104091</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="3"/>
-        <v>1183968.6058815697</v>
+        <v>1372469.3391104091</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="4"/>
-        <v>62726.152976635589</v>
+        <v>74590.468530580241</v>
       </c>
       <c r="O33" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633793E-2</v>
+        <v>5.5978068432694629E-2</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="5"/>
-        <v>28241.630475230726</v>
+        <v>34615.63341085946</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -5192,7 +5167,6 @@
         <v>2044</v>
       </c>
       <c r="B34" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C34" s="5">
@@ -5207,11 +5181,11 @@
       </c>
       <c r="F34" s="5">
         <f t="shared" si="8"/>
-        <v>-1228.3728200802977</v>
+        <v>-1423.9431891874283</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="10"/>
-        <v>4664.7069116973307</v>
+        <v>5407.3791994459289</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -5221,23 +5195,23 @@
       </c>
       <c r="L34" s="7">
         <f t="shared" si="11"/>
-        <v>1219487.6640580168</v>
+        <v>1413643.4192837214</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="3"/>
-        <v>1219487.6640580168</v>
+        <v>1413643.4192837214</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" si="4"/>
-        <v>64607.937565934815</v>
+        <v>76828.182586497482</v>
       </c>
       <c r="O34" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633932E-2</v>
+        <v>5.5978068432694504E-2</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="5"/>
-        <v>29088.879389487643</v>
+        <v>35654.102413185254</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
@@ -5245,7 +5219,6 @@
         <v>2045</v>
       </c>
       <c r="B35" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C35" s="5">
@@ -5260,11 +5233,11 @@
       </c>
       <c r="F35" s="5">
         <f t="shared" ref="F35:F71" si="12">F34*(1+B35)</f>
-        <v>-1265.2240046827067</v>
+        <v>-1466.6614848630511</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="10"/>
-        <v>4804.6481190482509</v>
+        <v>5569.6005754293064</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -5274,23 +5247,23 @@
       </c>
       <c r="L35" s="7">
         <f t="shared" ref="L35:L71" si="13">L34*(1+B35)</f>
-        <v>1256072.2939797575</v>
+        <v>1456052.721862233</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="3"/>
-        <v>1256072.2939797575</v>
+        <v>1456052.721862233</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="4"/>
-        <v>66546.17569291289</v>
+        <v>79133.028064092461</v>
       </c>
       <c r="O35" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633953E-2</v>
+        <v>5.5978068432694546E-2</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="5"/>
-        <v>29961.545771172277</v>
+        <v>36723.725485580813</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -5298,7 +5271,6 @@
         <v>2046</v>
       </c>
       <c r="B36" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C36" s="5">
@@ -5313,11 +5285,11 @@
       </c>
       <c r="F36" s="5">
         <f t="shared" si="12"/>
-        <v>-1303.1807248231878</v>
+        <v>-1510.6613294089427</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="10"/>
-        <v>4948.7875626196983</v>
+        <v>5736.6885926921859</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
@@ -5327,23 +5299,23 @@
       </c>
       <c r="L36" s="7">
         <f t="shared" si="13"/>
-        <v>1293754.4627991503</v>
+        <v>1499734.3035180999</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="3"/>
-        <v>1293754.4627991503</v>
+        <v>1499734.3035180999</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="4"/>
-        <v>68542.560963700249</v>
+        <v>81507.018906015175</v>
       </c>
       <c r="O36" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633925E-2</v>
+        <v>5.5978068432694504E-2</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="5"/>
-        <v>30860.392144307447</v>
+        <v>37825.437250148243</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -5351,7 +5323,6 @@
         <v>2047</v>
       </c>
       <c r="B37" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C37" s="5">
@@ -5366,11 +5337,11 @@
       </c>
       <c r="F37" s="5">
         <f t="shared" si="12"/>
-        <v>-1342.2761465678834</v>
+        <v>-1555.981169291211</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="10"/>
-        <v>5097.251189498289</v>
+        <v>5908.7892504729516</v>
       </c>
       <c r="H37" s="5">
         <v>0</v>
@@ -5380,23 +5351,23 @@
       </c>
       <c r="L37" s="7">
         <f t="shared" si="13"/>
-        <v>1332567.0966831248</v>
+        <v>1544726.3326236429</v>
       </c>
       <c r="M37" s="7">
         <f t="shared" si="3"/>
-        <v>1332567.0966831248</v>
+        <v>1544726.3326236429</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" si="4"/>
-        <v>70598.837792611186</v>
+        <v>83952.229473195621</v>
       </c>
       <c r="O37" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633862E-2</v>
+        <v>5.5978068432694497E-2</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="5"/>
-        <v>31786.203908636664</v>
+        <v>38960.200367652687</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -5404,7 +5375,6 @@
         <v>2048</v>
       </c>
       <c r="B38" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C38" s="5">
@@ -5419,11 +5389,11 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" si="12"/>
-        <v>-1382.5444309649199</v>
+        <v>-1602.6606043699474</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="10"/>
-        <v>5250.1687251832382</v>
+        <v>6086.0529279871407</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -5433,23 +5403,23 @@
       </c>
       <c r="L38" s="7">
         <f t="shared" si="13"/>
-        <v>1372544.1095836186</v>
+        <v>1591068.1226023522</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="3"/>
-        <v>1372544.1095836186</v>
+        <v>1591068.1226023522</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" si="4"/>
-        <v>72716.802926389588</v>
+        <v>86470.796357391577</v>
       </c>
       <c r="O38" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633918E-2</v>
+        <v>5.597806843269456E-2</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="5"/>
-        <v>32739.790025895774</v>
+        <v>40129.006378682272</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -5457,7 +5427,6 @@
         <v>2049</v>
       </c>
       <c r="B39" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C39" s="5">
@@ -5472,11 +5441,11 @@
       </c>
       <c r="F39" s="5">
         <f t="shared" si="12"/>
-        <v>-1424.0207638938675</v>
+        <v>-1650.7404225010457</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="10"/>
-        <v>5407.6737869387352</v>
+        <v>6268.634515826755</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -5486,23 +5455,23 @@
       </c>
       <c r="L39" s="7">
         <f t="shared" si="13"/>
-        <v>1413720.4328711273</v>
+        <v>1638800.1662804228</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="3"/>
-        <v>1413720.4328711273</v>
+        <v>1638800.1662804228</v>
       </c>
       <c r="N39" s="8">
         <f t="shared" si="4"/>
-        <v>74898.307014181322</v>
+        <v>89064.920248113398</v>
       </c>
       <c r="O39" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633946E-2</v>
+        <v>5.5978068432694601E-2</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="5"/>
-        <v>33721.983726672639</v>
+        <v>41332.876570042747</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -5510,7 +5479,6 @@
         <v>2050</v>
       </c>
       <c r="B40" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C40" s="5">
@@ -5525,11 +5493,11 @@
       </c>
       <c r="F40" s="5">
         <f t="shared" si="12"/>
-        <v>-1466.7413868106835</v>
+        <v>-1700.2626351760771</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="10"/>
-        <v>5569.9040005468978</v>
+        <v>6456.6935513015578</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -5539,23 +5507,23 @@
       </c>
       <c r="L40" s="7">
         <f t="shared" si="13"/>
-        <v>1456132.0458572612</v>
+        <v>1687964.1712688357</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="3"/>
-        <v>1456132.0458572612</v>
+        <v>1687964.1712688357</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="4"/>
-        <v>77145.256224606739</v>
+        <v>91736.867855556862</v>
       </c>
       <c r="O40" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633925E-2</v>
+        <v>5.5978068432694636E-2</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="5"/>
-        <v>34733.643238472832</v>
+        <v>42572.862867144031</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -5563,7 +5531,6 @@
         <v>2051</v>
       </c>
       <c r="B41" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C41" s="5">
@@ -5578,11 +5545,11 @@
       </c>
       <c r="F41" s="5">
         <f t="shared" si="12"/>
-        <v>-1510.743628415004</v>
+        <v>-1751.2705142313594</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="10"/>
-        <v>5737.0011205633045</v>
+        <v>6650.3943578406052</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -5592,23 +5559,23 @@
       </c>
       <c r="L41" s="7">
         <f t="shared" si="13"/>
-        <v>1499816.0072329789</v>
+        <v>1738603.0964069008</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" si="3"/>
-        <v>1499816.0072329789</v>
+        <v>1738603.0964069008</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="4"/>
-        <v>79459.613911344786</v>
+        <v>94488.97389122349</v>
       </c>
       <c r="O41" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633814E-2</v>
+        <v>5.5978068432694587E-2</v>
       </c>
       <c r="P41" s="8">
         <f t="shared" si="5"/>
-        <v>35775.652535627014</v>
+        <v>43850.048753158357</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -5616,7 +5583,6 @@
         <v>2052</v>
       </c>
       <c r="B42" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C42" s="5">
@@ -5631,11 +5597,11 @@
       </c>
       <c r="F42" s="5">
         <f t="shared" si="12"/>
-        <v>-1556.065937267454</v>
+        <v>-1803.8086296583001</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="10"/>
-        <v>5909.1111541802038</v>
+        <v>6849.9061885758238</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -5645,23 +5611,23 @@
       </c>
       <c r="L42" s="7">
         <f t="shared" si="13"/>
-        <v>1544810.4874499682</v>
+        <v>1790761.1892991078</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" si="3"/>
-        <v>1544810.4874499682</v>
+        <v>1790761.1892991078</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" si="4"/>
-        <v>81843.40232868513</v>
+        <v>97323.643107960088</v>
       </c>
       <c r="O42" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633821E-2</v>
+        <v>5.5978068432694525E-2</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="5"/>
-        <v>36848.922111695829</v>
+        <v>45165.550215753115</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -5669,7 +5635,6 @@
         <v>2053</v>
       </c>
       <c r="B43" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C43" s="5">
@@ -5684,11 +5649,11 @@
       </c>
       <c r="F43" s="5">
         <f t="shared" si="12"/>
-        <v>-1602.7479153854777</v>
+        <v>-1857.9228885480491</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="10"/>
-        <v>6086.3844888056101</v>
+        <v>7055.4033742330985</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -5698,23 +5663,23 @@
       </c>
       <c r="L43" s="7">
         <f t="shared" si="13"/>
-        <v>1591154.8020734673</v>
+        <v>1844484.024978081</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" si="3"/>
-        <v>1591154.8020734673</v>
+        <v>1844484.024978081</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="4"/>
-        <v>84298.704398545757</v>
+        <v>100243.35240119894</v>
       </c>
       <c r="O43" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633869E-2</v>
+        <v>5.5978068432694553E-2</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="5"/>
-        <v>37954.3897750467</v>
+        <v>46520.516722225701</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -5722,7 +5687,6 @@
         <v>2054</v>
       </c>
       <c r="B44" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C44" s="5">
@@ -5737,11 +5701,11 @@
       </c>
       <c r="F44" s="5">
         <f t="shared" si="12"/>
-        <v>-1650.8303528470419</v>
+        <v>-1913.6605752044907</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="10"/>
-        <v>6268.9760234697787</v>
+        <v>7267.0654754600919</v>
       </c>
       <c r="H44" s="5">
         <v>0</v>
@@ -5751,23 +5715,23 @@
       </c>
       <c r="L44" s="7">
         <f t="shared" si="13"/>
-        <v>1638889.4461356713</v>
+        <v>1899818.5457274234</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="3"/>
-        <v>1638889.4461356713</v>
+        <v>1899818.5457274234</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="4"/>
-        <v>86827.665530502156</v>
+        <v>103250.65297323487</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633883E-2</v>
+        <v>5.5978068432694532E-2</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="5"/>
-        <v>39093.02146829811</v>
+        <v>47916.132223892477</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -5775,7 +5739,6 @@
         <v>2055</v>
       </c>
       <c r="B45" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C45" s="5">
@@ -5790,11 +5753,11 @@
       </c>
       <c r="F45" s="5">
         <f t="shared" si="12"/>
-        <v>-1700.3552634324533</v>
+        <v>-1971.0703924606255</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="10"/>
-        <v>6457.045304173872</v>
+        <v>7485.0774397238947</v>
       </c>
       <c r="H45" s="5">
         <v>0</v>
@@ -5804,23 +5767,23 @@
       </c>
       <c r="L45" s="7">
         <f t="shared" si="13"/>
-        <v>1688056.1295197415</v>
+        <v>1956813.1020992461</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="3"/>
-        <v>1688056.1295197415</v>
+        <v>1956813.1020992461</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" si="4"/>
-        <v>89432.495496417221</v>
+        <v>106348.17256243198</v>
       </c>
       <c r="O45" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633883E-2</v>
+        <v>5.5978068432694567E-2</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="5"/>
-        <v>40265.812112347048</v>
+        <v>49353.616190609253</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -5828,7 +5791,6 @@
         <v>2056</v>
       </c>
       <c r="B46" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C46" s="5">
@@ -5843,11 +5805,11 @@
       </c>
       <c r="F46" s="5">
         <f t="shared" si="12"/>
-        <v>-1751.3659213354269</v>
+        <v>-2030.2025042344444</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="10"/>
-        <v>6650.7566632990884</v>
+        <v>7709.6297629156115</v>
       </c>
       <c r="H46" s="5">
         <v>0</v>
@@ -5857,23 +5819,23 @@
       </c>
       <c r="L46" s="7">
         <f t="shared" si="13"/>
-        <v>1738697.8134053338</v>
+        <v>2015517.4951622235</v>
       </c>
       <c r="M46" s="7">
         <f t="shared" si="3"/>
-        <v>1738697.8134053338</v>
+        <v>2015517.4951622235</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="4"/>
-        <v>92115.470361309737</v>
+        <v>109538.61773930489</v>
       </c>
       <c r="O46" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633883E-2</v>
+        <v>5.5978068432694539E-2</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="5"/>
-        <v>41473.786475717461</v>
+        <v>50834.224676327533</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -5881,7 +5843,6 @@
         <v>2057</v>
       </c>
       <c r="B47" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C47" s="5">
@@ -5896,11 +5857,11 @@
       </c>
       <c r="F47" s="5">
         <f t="shared" si="12"/>
-        <v>-1803.9068989754899</v>
+        <v>-2091.108579361478</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" si="10"/>
-        <v>6850.2793631980612</v>
+        <v>7940.9186558030797</v>
       </c>
       <c r="H47" s="5">
         <v>0</v>
@@ -5910,23 +5871,23 @@
       </c>
       <c r="L47" s="7">
         <f t="shared" si="13"/>
-        <v>1790858.7478074939</v>
+        <v>2075983.0200170903</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="3"/>
-        <v>1790858.7478074939</v>
+        <v>2075983.0200170903</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="4"/>
-        <v>94878.934472149092</v>
+        <v>112824.77627148412</v>
       </c>
       <c r="O47" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633918E-2</v>
+        <v>5.5978068432694587E-2</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="5"/>
-        <v>42718.000069988986</v>
+        <v>52359.251416617342</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -5934,7 +5895,6 @@
         <v>2058</v>
       </c>
       <c r="B48" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C48" s="5">
@@ -5949,11 +5909,11 @@
       </c>
       <c r="F48" s="5">
         <f t="shared" si="12"/>
-        <v>-1858.0241059447546</v>
+        <v>-2153.8418367423224</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" si="10"/>
-        <v>7055.7877440940028</v>
+        <v>8179.1462154771725</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
@@ -5963,23 +5923,23 @@
       </c>
       <c r="L48" s="7">
         <f t="shared" si="13"/>
-        <v>1844584.5102417187</v>
+        <v>2138262.5106176031</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="3"/>
-        <v>1844584.5102417187</v>
+        <v>2138262.5106176031</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" si="4"/>
-        <v>97725.302506313485</v>
+        <v>116209.51955962869</v>
       </c>
       <c r="O48" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633869E-2</v>
+        <v>5.5978068432694608E-2</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="5"/>
-        <v>43999.540072088646</v>
+        <v>53930.028959115865</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
@@ -5987,7 +5947,6 @@
         <v>2059</v>
       </c>
       <c r="B49" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C49" s="5">
@@ -6002,11 +5961,11 @@
       </c>
       <c r="F49" s="5">
         <f t="shared" si="12"/>
-        <v>-1913.7648291230973</v>
+        <v>-2218.457091844592</v>
       </c>
       <c r="G49" s="5">
         <f t="shared" si="10"/>
-        <v>7267.4613764168234</v>
+        <v>8424.5206019414873</v>
       </c>
       <c r="H49" s="5">
         <v>0</v>
@@ -6016,23 +5975,23 @@
       </c>
       <c r="L49" s="7">
         <f t="shared" si="13"/>
-        <v>1899922.0455489703</v>
+        <v>2202410.3859361312</v>
       </c>
       <c r="M49" s="7">
         <f t="shared" si="3"/>
-        <v>1899922.0455489703</v>
+        <v>2202410.3859361312</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="4"/>
-        <v>100657.06158150293</v>
+        <v>119695.80514641749</v>
       </c>
       <c r="O49" s="12">
         <f t="shared" si="6"/>
-        <v>5.456896174863389E-2</v>
+        <v>5.5978068432694573E-2</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="5"/>
-        <v>45319.526274251315</v>
+        <v>55547.929827889348</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -6040,7 +5999,6 @@
         <v>2060</v>
       </c>
       <c r="B50" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C50" s="5">
@@ -6055,11 +6013,11 @@
       </c>
       <c r="F50" s="5">
         <f t="shared" si="12"/>
-        <v>-1971.1777739967904</v>
+        <v>-2285.01080459993</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" si="10"/>
-        <v>7485.485217709328</v>
+        <v>8677.2562199997319</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -6069,23 +6027,23 @@
       </c>
       <c r="L50" s="7">
         <f t="shared" si="13"/>
-        <v>1956919.7069154396</v>
+        <v>2268482.697514215</v>
       </c>
       <c r="M50" s="7">
         <f t="shared" si="3"/>
-        <v>1956919.7069154396</v>
+        <v>2268482.697514215</v>
       </c>
       <c r="N50" s="8">
         <f t="shared" si="4"/>
-        <v>103676.77342894807</v>
+        <v>123286.6793008098</v>
       </c>
       <c r="O50" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633918E-2</v>
+        <v>5.5978068432694476E-2</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="5"/>
-        <v>46679.112062478845</v>
+        <v>57214.36772272602</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -6093,7 +6051,6 @@
         <v>2061</v>
       </c>
       <c r="B51" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C51" s="5">
@@ -6108,11 +6065,11 @@
       </c>
       <c r="F51" s="5">
         <f t="shared" si="12"/>
-        <v>-2030.3131072166941</v>
+        <v>-2353.5611287379279</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" si="10"/>
-        <v>7710.0497742406078</v>
+        <v>8937.5739065997241</v>
       </c>
       <c r="H51" s="5">
         <v>0</v>
@@ -6122,23 +6079,23 @@
       </c>
       <c r="L51" s="7">
         <f t="shared" si="13"/>
-        <v>2015627.2981229029</v>
+        <v>2336537.1784396414</v>
       </c>
       <c r="M51" s="7">
         <f t="shared" si="3"/>
-        <v>2015627.2981229029</v>
+        <v>2336537.1784396414</v>
       </c>
       <c r="N51" s="8">
         <f t="shared" si="4"/>
-        <v>106787.07663181651</v>
+        <v>126985.27967983414</v>
       </c>
       <c r="O51" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633911E-2</v>
+        <v>5.5978068432694497E-2</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="5"/>
-        <v>48079.48542435321</v>
+        <v>58930.798754407799</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
@@ -6146,7 +6103,6 @@
         <v>2062</v>
       </c>
       <c r="B52" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C52" s="5">
@@ -6161,11 +6117,11 @@
       </c>
       <c r="F52" s="5">
         <f t="shared" si="12"/>
-        <v>-2091.2225004331949</v>
+        <v>-2424.1679626000659</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" si="10"/>
-        <v>7941.3512674678259</v>
+        <v>9205.7011237977167</v>
       </c>
       <c r="H52" s="5">
         <v>0</v>
@@ -6175,23 +6131,23 @@
       </c>
       <c r="L52" s="7">
         <f t="shared" si="13"/>
-        <v>2076096.1170665901</v>
+        <v>2406633.2937928308</v>
       </c>
       <c r="M52" s="7">
         <f t="shared" si="3"/>
-        <v>2076096.1170665901</v>
+        <v>2406633.2937928308</v>
       </c>
       <c r="N52" s="8">
         <f t="shared" si="4"/>
-        <v>109990.68893077105</v>
+        <v>130794.83807022945</v>
       </c>
       <c r="O52" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633932E-2</v>
+        <v>5.5978068432694622E-2</v>
       </c>
       <c r="P52" s="8">
         <f t="shared" si="5"/>
-        <v>49521.869987083803</v>
+        <v>60698.722717040044</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -6199,7 +6155,6 @@
         <v>2063</v>
       </c>
       <c r="B53" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C53" s="5">
@@ -6214,11 +6169,11 @@
       </c>
       <c r="F53" s="5">
         <f t="shared" si="12"/>
-        <v>-2153.9591754461908</v>
+        <v>-2496.8930014780681</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" si="10"/>
-        <v>8179.5918054918611</v>
+        <v>9481.8721575116488</v>
       </c>
       <c r="H53" s="5">
         <v>0</v>
@@ -6228,23 +6183,23 @@
       </c>
       <c r="L53" s="7">
         <f t="shared" si="13"/>
-        <v>2138379.0005785879</v>
+        <v>2478832.2926066159</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="3"/>
-        <v>2138379.0005785879</v>
+        <v>2478832.2926066159</v>
       </c>
       <c r="N53" s="8">
         <f t="shared" si="4"/>
-        <v>113290.40959869408</v>
+        <v>134718.68321233639</v>
       </c>
       <c r="O53" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633876E-2</v>
+        <v>5.5978068432694643E-2</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="5"/>
-        <v>51007.526086696322</v>
+        <v>62519.684398551246</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
@@ -6252,7 +6207,6 @@
         <v>2064</v>
       </c>
       <c r="B54" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C54" s="5">
@@ -6267,11 +6221,11 @@
       </c>
       <c r="F54" s="5">
         <f t="shared" si="12"/>
-        <v>-2218.5779507095767</v>
+        <v>-2571.79979152241</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" si="10"/>
-        <v>8424.9795596566164</v>
+        <v>9766.3283222369992</v>
       </c>
       <c r="H54" s="5">
         <v>0</v>
@@ -6281,23 +6235,23 @@
       </c>
       <c r="L54" s="7">
         <f t="shared" si="13"/>
-        <v>2202530.3705959455</v>
+        <v>2553197.2613848145</v>
       </c>
       <c r="M54" s="7">
         <f t="shared" si="3"/>
-        <v>2202530.3705959455</v>
+        <v>2553197.2613848145</v>
       </c>
       <c r="N54" s="8">
         <f t="shared" si="4"/>
-        <v>116689.12188665484</v>
+        <v>138760.2437087064</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633849E-2</v>
+        <v>5.5978068432694608E-2</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="5"/>
-        <v>52537.751869297208</v>
+        <v>64395.274930507803</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
@@ -6305,7 +6259,6 @@
         <v>2065</v>
       </c>
       <c r="B55" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C55" s="5">
@@ -6320,11 +6273,11 @@
       </c>
       <c r="F55" s="5">
         <f t="shared" si="12"/>
-        <v>-2285.1352892308641</v>
+        <v>-2648.9537852680824</v>
       </c>
       <c r="G55" s="5">
         <f t="shared" si="10"/>
-        <v>8677.7289464463156</v>
+        <v>10059.318171904109</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -6334,23 +6287,23 @@
       </c>
       <c r="L55" s="7">
         <f t="shared" si="13"/>
-        <v>2268606.2817138238</v>
+        <v>2629793.1792263589</v>
       </c>
       <c r="M55" s="7">
         <f t="shared" si="3"/>
-        <v>2268606.2817138238</v>
+        <v>2629793.1792263589</v>
       </c>
       <c r="N55" s="8">
         <f t="shared" si="4"/>
-        <v>120189.79554325441</v>
+        <v>142923.05101996742</v>
       </c>
       <c r="O55" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633814E-2</v>
+        <v>5.5978068432694532E-2</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="5"/>
-        <v>54113.884425376127</v>
+        <v>66327.133178423042</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
@@ -6358,7 +6311,6 @@
         <v>2066</v>
       </c>
       <c r="B56" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C56" s="5">
@@ -6373,11 +6325,11 @@
       </c>
       <c r="F56" s="5">
         <f t="shared" si="12"/>
-        <v>-2353.6893479077903</v>
+        <v>-2728.4223988261251</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" si="10"/>
-        <v>8938.0608148397059</v>
+        <v>10361.097717061233</v>
       </c>
       <c r="H56" s="5">
         <v>0</v>
@@ -6387,23 +6339,23 @@
       </c>
       <c r="L56" s="7">
         <f t="shared" si="13"/>
-        <v>2336664.4701652387</v>
+        <v>2708686.9746031496</v>
       </c>
       <c r="M56" s="7">
         <f t="shared" si="3"/>
-        <v>2336664.4701652387</v>
+        <v>2708686.9746031496</v>
       </c>
       <c r="N56" s="8">
         <f t="shared" si="4"/>
-        <v>123795.48940955235</v>
+        <v>147210.74255056641</v>
       </c>
       <c r="O56" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633953E-2</v>
+        <v>5.5978068432694525E-2</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="5"/>
-        <v>55737.300958137421</v>
+        <v>68316.947173775727</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -6411,7 +6363,6 @@
         <v>2067</v>
       </c>
       <c r="B57" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C57" s="5">
@@ -6426,11 +6377,11 @@
       </c>
       <c r="F57" s="5">
         <f t="shared" si="12"/>
-        <v>-2424.3000283450242</v>
+        <v>-2810.275070790909</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" si="10"/>
-        <v>9206.2026392848966</v>
+        <v>10671.93064857307</v>
       </c>
       <c r="H57" s="5">
         <v>0</v>
@@ -6440,23 +6391,23 @@
       </c>
       <c r="L57" s="7">
         <f t="shared" si="13"/>
-        <v>2406764.4042701959</v>
+        <v>2789947.5838412442</v>
       </c>
       <c r="M57" s="7">
         <f t="shared" si="3"/>
-        <v>2406764.4042701959</v>
+        <v>2789947.5838412442</v>
       </c>
       <c r="N57" s="8">
         <f t="shared" si="4"/>
-        <v>127509.35409183869</v>
+        <v>151627.06482708367</v>
       </c>
       <c r="O57" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633849E-2</v>
+        <v>5.5978068432694622E-2</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="5"/>
-        <v>57409.419986881534</v>
+        <v>70366.455588989003</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
@@ -6464,7 +6415,6 @@
         <v>2068</v>
       </c>
       <c r="B58" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C58" s="5">
@@ -6479,11 +6429,11 @@
       </c>
       <c r="F58" s="5">
         <f t="shared" si="12"/>
-        <v>-2497.0290291953752</v>
+        <v>-2894.5833229146365</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" si="10"/>
-        <v>9482.3887184634441</v>
+        <v>10992.088568030264</v>
       </c>
       <c r="H58" s="5">
         <v>0</v>
@@ -6493,23 +6443,23 @@
       </c>
       <c r="L58" s="7">
         <f t="shared" si="13"/>
-        <v>2478967.3363983016</v>
+        <v>2873646.0113564818</v>
       </c>
       <c r="M58" s="7">
         <f t="shared" si="3"/>
-        <v>2478967.3363983016</v>
+        <v>2873646.0113564818</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="4"/>
-        <v>131334.63471459376</v>
+        <v>156175.87677189626</v>
       </c>
       <c r="O58" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633814E-2</v>
+        <v>5.597806843269465E-2</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="5"/>
-        <v>59131.702586487983</v>
+        <v>72477.44925665867</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
@@ -6517,7 +6467,6 @@
         <v>2069</v>
       </c>
       <c r="B59" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C59" s="5">
@@ -6532,11 +6481,11 @@
       </c>
       <c r="F59" s="5">
         <f t="shared" si="12"/>
-        <v>-2571.9399000712365</v>
+        <v>-2981.4208226020755</v>
       </c>
       <c r="G59" s="5">
         <f t="shared" si="10"/>
-        <v>9766.8603800173478</v>
+        <v>11321.851225071172</v>
       </c>
       <c r="H59" s="5">
         <v>0</v>
@@ -6546,23 +6495,23 @@
       </c>
       <c r="L59" s="7">
         <f t="shared" si="13"/>
-        <v>2553336.3564902507</v>
+        <v>2959855.3916971763</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="3"/>
-        <v>2553336.3564902507</v>
+        <v>2959855.3916971763</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" si="4"/>
-        <v>135274.67375603167</v>
+        <v>160861.15307505289</v>
       </c>
       <c r="O59" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633849E-2</v>
+        <v>5.5978068432694553E-2</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="5"/>
-        <v>60905.653664082623</v>
+        <v>74651.772734358441</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -6570,7 +6519,6 @@
         <v>2070</v>
       </c>
       <c r="B60" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C60" s="5">
@@ -6585,11 +6533,11 @@
       </c>
       <c r="F60" s="5">
         <f t="shared" si="12"/>
-        <v>-2649.0980970733735</v>
+        <v>-3070.8634472801377</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" si="10"/>
-        <v>10059.866191417868</v>
+        <v>11661.506761823308</v>
       </c>
       <c r="H60" s="5">
         <v>0</v>
@@ -6599,23 +6547,23 @@
       </c>
       <c r="L60" s="7">
         <f t="shared" si="13"/>
-        <v>2629936.4471849585</v>
+        <v>3048651.0534480917</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="3"/>
-        <v>2629936.4471849585</v>
+        <v>3048651.0534480917</v>
       </c>
       <c r="N60" s="8">
         <f t="shared" si="4"/>
-        <v>139332.91396871291</v>
+        <v>165686.98766730467</v>
       </c>
       <c r="O60" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633966E-2</v>
+        <v>5.5978068432694615E-2</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="5"/>
-        <v>62732.823274005103</v>
+        <v>76891.325916389207</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -6623,7 +6571,6 @@
         <v>2071</v>
       </c>
       <c r="B61" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C61" s="5">
@@ -6638,11 +6585,11 @@
       </c>
       <c r="F61" s="5">
         <f t="shared" si="12"/>
-        <v>-2728.5710399855748</v>
+        <v>-3162.9893506985418</v>
       </c>
       <c r="G61" s="5">
         <f t="shared" si="10"/>
-        <v>10361.662177160404</v>
+        <v>12011.351964678008</v>
       </c>
       <c r="H61" s="5">
         <v>0</v>
@@ -6652,23 +6599,23 @@
       </c>
       <c r="L61" s="7">
         <f t="shared" si="13"/>
-        <v>2708834.5406005075</v>
+        <v>3140110.5850515347</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" si="3"/>
-        <v>2708834.5406005075</v>
+        <v>3140110.5850515347</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" si="4"/>
-        <v>143512.90138777427</v>
+        <v>170657.59729732387</v>
       </c>
       <c r="O61" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633953E-2</v>
+        <v>5.5978068432694636E-2</v>
       </c>
       <c r="P61" s="8">
         <f t="shared" si="5"/>
-        <v>64614.807972225244</v>
+        <v>79198.065693880897</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -6676,7 +6623,6 @@
         <v>2072</v>
       </c>
       <c r="B62" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C62" s="5">
@@ -6691,11 +6637,11 @@
       </c>
       <c r="F62" s="5">
         <f t="shared" si="12"/>
-        <v>-2810.4281711851422</v>
+        <v>-3257.8790312194983</v>
       </c>
       <c r="G62" s="5">
         <f t="shared" si="10"/>
-        <v>10672.512042475217</v>
+        <v>12371.692523618349</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
@@ -6705,23 +6651,23 @@
       </c>
       <c r="L62" s="7">
         <f t="shared" si="13"/>
-        <v>2790099.576818523</v>
+        <v>3234313.902603081</v>
       </c>
       <c r="M62" s="7">
         <f t="shared" si="3"/>
-        <v>2790099.576818523</v>
+        <v>3234313.902603081</v>
       </c>
       <c r="N62" s="8">
         <f t="shared" si="4"/>
-        <v>147818.28842940749</v>
+        <v>175777.32521624357</v>
       </c>
       <c r="O62" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633939E-2</v>
+        <v>5.5978068432694629E-2</v>
       </c>
       <c r="P62" s="8">
         <f t="shared" si="5"/>
-        <v>66553.252211392013</v>
+        <v>81574.007664697318</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -6729,7 +6675,6 @@
         <v>2073</v>
       </c>
       <c r="B63" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C63" s="5">
@@ -6744,11 +6689,11 @@
       </c>
       <c r="F63" s="5">
         <f t="shared" si="12"/>
-        <v>-2894.7410163206964</v>
+        <v>-3355.6154021560833</v>
       </c>
       <c r="G63" s="5">
         <f t="shared" si="10"/>
-        <v>10992.687403749473</v>
+        <v>12742.8432993269</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
@@ -6758,23 +6703,23 @@
       </c>
       <c r="L63" s="7">
         <f t="shared" si="13"/>
-        <v>2873802.5641230787</v>
+        <v>3331343.3196811737</v>
       </c>
       <c r="M63" s="7">
         <f t="shared" si="3"/>
-        <v>2873802.5641230787</v>
+        <v>3331343.3196811737</v>
       </c>
       <c r="N63" s="8">
         <f t="shared" si="4"/>
-        <v>152252.83708228948</v>
+        <v>181050.64497273095</v>
       </c>
       <c r="O63" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633855E-2</v>
+        <v>5.5978068432694643E-2</v>
       </c>
       <c r="P63" s="8">
         <f t="shared" si="5"/>
-        <v>68549.849777733762</v>
+        <v>84021.227894638243</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
@@ -6782,7 +6727,6 @@
         <v>2074</v>
       </c>
       <c r="B64" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C64" s="5">
@@ -6797,11 +6741,11 @@
       </c>
       <c r="F64" s="5">
         <f t="shared" si="12"/>
-        <v>-2981.5832468103172</v>
+        <v>-3456.2838642207657</v>
       </c>
       <c r="G64" s="5">
         <f t="shared" si="10"/>
-        <v>11322.468025861957</v>
+        <v>13125.128598306706</v>
       </c>
       <c r="H64" s="5">
         <v>0</v>
@@ -6811,23 +6755,23 @@
       </c>
       <c r="L64" s="7">
         <f t="shared" si="13"/>
-        <v>2960016.6410467713</v>
+        <v>3431283.619271609</v>
       </c>
       <c r="M64" s="7">
         <f t="shared" si="3"/>
-        <v>2960016.6410467713</v>
+        <v>3431283.619271609</v>
       </c>
       <c r="N64" s="8">
         <f t="shared" si="4"/>
-        <v>156820.42219475837</v>
+        <v>186482.16432191274</v>
       </c>
       <c r="O64" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633925E-2</v>
+        <v>5.5978068432694601E-2</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" si="5"/>
-        <v>70606.345271065788</v>
+        <v>86541.864731477384</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -6835,7 +6779,6 @@
         <v>2075</v>
       </c>
       <c r="B65" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C65" s="5">
@@ -6850,11 +6793,11 @@
       </c>
       <c r="F65" s="5">
         <f t="shared" si="12"/>
-        <v>-3071.0307442146268</v>
+        <v>-3559.9723801473888</v>
       </c>
       <c r="G65" s="5">
         <f t="shared" si="10"/>
-        <v>11662.142066637816</v>
+        <v>13518.882456255908</v>
       </c>
       <c r="H65" s="5">
         <v>0</v>
@@ -6864,23 +6807,23 @@
       </c>
       <c r="L65" s="7">
         <f t="shared" si="13"/>
-        <v>3048817.1402781745</v>
+        <v>3534222.1278497572</v>
       </c>
       <c r="M65" s="7">
         <f t="shared" si="3"/>
-        <v>3048817.1402781745</v>
+        <v>3534222.1278497572</v>
       </c>
       <c r="N65" s="8">
         <f t="shared" si="4"/>
-        <v>161525.03486060098</v>
+        <v>192076.62925156992</v>
       </c>
       <c r="O65" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633869E-2</v>
+        <v>5.5978068432694539E-2</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" si="5"/>
-        <v>72724.535629197751</v>
+        <v>89138.120673421712</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
@@ -6888,7 +6831,6 @@
         <v>2076</v>
       </c>
       <c r="B66" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C66" s="5">
@@ -6903,11 +6845,11 @@
       </c>
       <c r="F66" s="5">
         <f t="shared" si="12"/>
-        <v>-3163.1616665410656</v>
+        <v>-3666.7715515518107</v>
       </c>
       <c r="G66" s="5">
         <f t="shared" si="10"/>
-        <v>12012.006328636951</v>
+        <v>13924.448929943585</v>
       </c>
       <c r="H66" s="5">
         <v>0</v>
@@ -6917,23 +6859,23 @@
       </c>
       <c r="L66" s="7">
         <f t="shared" si="13"/>
-        <v>3140281.6544865198</v>
+        <v>3640248.7916852501</v>
       </c>
       <c r="M66" s="7">
         <f t="shared" ref="M66:M71" si="14">K66+L66</f>
-        <v>3140281.6544865198</v>
+        <v>3640248.7916852501</v>
       </c>
       <c r="N66" s="8">
         <f t="shared" si="4"/>
-        <v>166370.78590641893</v>
+        <v>197838.92812911727</v>
       </c>
       <c r="O66" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633842E-2</v>
+        <v>5.5978068432694608E-2</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="5"/>
-        <v>74906.271698073702</v>
+        <v>91812.26429362435</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -6941,7 +6883,6 @@
         <v>2077</v>
       </c>
       <c r="B67" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C67" s="5">
@@ -6956,11 +6897,11 @@
       </c>
       <c r="F67" s="5">
         <f t="shared" si="12"/>
-        <v>-3258.0565165372977</v>
+        <v>-3776.7746980983652</v>
       </c>
       <c r="G67" s="5">
         <f t="shared" si="10"/>
-        <v>12372.366518496061</v>
+        <v>14342.182397841892</v>
       </c>
       <c r="H67" s="5">
         <v>0</v>
@@ -6970,23 +6911,23 @@
       </c>
       <c r="L67" s="7">
         <f t="shared" si="13"/>
-        <v>3234490.1041211155</v>
+        <v>3749456.2554358076</v>
       </c>
       <c r="M67" s="7">
         <f t="shared" si="14"/>
-        <v>3234490.1041211155</v>
+        <v>3749456.2554358076</v>
       </c>
       <c r="N67" s="8">
         <f t="shared" si="4"/>
-        <v>171361.9094836117</v>
+        <v>203774.09597299062</v>
       </c>
       <c r="O67" s="12">
         <f t="shared" si="6"/>
-        <v>5.4568961748633911E-2</v>
+        <v>5.597806843269456E-2</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" ref="P67:P71" si="15">12*(C67+D67+E67+F67+G67)+H67</f>
-        <v>77153.459849015926</v>
+        <v>94566.632222433094</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
@@ -6994,7 +6935,6 @@
         <v>2078</v>
       </c>
       <c r="B68" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C68" s="5">
@@ -7009,11 +6949,11 @@
       </c>
       <c r="F68" s="5">
         <f t="shared" si="12"/>
-        <v>-3355.7982120334168</v>
+        <v>-3890.0779390413163</v>
       </c>
       <c r="G68" s="5">
         <f t="shared" si="10"/>
-        <v>12743.537514050942</v>
+        <v>14772.44786977715</v>
       </c>
       <c r="H68" s="5">
         <v>0</v>
@@ -7023,23 +6963,23 @@
       </c>
       <c r="L68" s="7">
         <f t="shared" si="13"/>
-        <v>3331524.8072447493</v>
+        <v>3861939.9430988817</v>
       </c>
       <c r="M68" s="7">
         <f t="shared" si="14"/>
-        <v>3331524.8072447493</v>
+        <v>3861939.9430988817</v>
       </c>
       <c r="N68" s="8">
         <f t="shared" ref="N68:N71" si="17">M68-M67+12*(C68+D68+E68+F68+G68)+H68</f>
-        <v>176502.76676812014</v>
+        <v>209887.31885218021</v>
       </c>
       <c r="O68" s="12">
         <f t="shared" ref="O68:O71" si="18">N68/M67</f>
-        <v>5.4568961748633932E-2</v>
+        <v>5.5978068432694525E-2</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" si="15"/>
-        <v>79468.063644486392</v>
+        <v>97403.63118910609</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -7047,7 +6987,6 @@
         <v>2079</v>
       </c>
       <c r="B69" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C69" s="5">
@@ -7062,11 +7001,11 @@
       </c>
       <c r="F69" s="5">
         <f t="shared" si="12"/>
-        <v>-3456.4721583944192</v>
+        <v>-4006.780277212556</v>
       </c>
       <c r="G69" s="5">
         <f t="shared" si="10"/>
-        <v>13125.84363947247</v>
+        <v>15215.621305870465</v>
       </c>
       <c r="H69" s="5">
         <v>0</v>
@@ -7076,23 +7015,23 @@
       </c>
       <c r="L69" s="7">
         <f t="shared" si="13"/>
-        <v>3431470.551462092</v>
+        <v>3977798.1413918482</v>
       </c>
       <c r="M69" s="7">
         <f t="shared" si="14"/>
-        <v>3431470.551462092</v>
+        <v>3977798.1413918482</v>
       </c>
       <c r="N69" s="8">
         <f t="shared" si="17"/>
-        <v>181797.84977116366</v>
+        <v>216183.93841774575</v>
       </c>
       <c r="O69" s="12">
         <f t="shared" si="18"/>
-        <v>5.4568961748633904E-2</v>
+        <v>5.5978068432694567E-2</v>
       </c>
       <c r="P69" s="8">
         <f t="shared" si="15"/>
-        <v>81852.105553820977</v>
+        <v>100325.74012477929</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -7100,7 +7039,6 @@
         <v>2080</v>
       </c>
       <c r="B70" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C70" s="5">
@@ -7115,11 +7053,11 @@
       </c>
       <c r="F70" s="5">
         <f t="shared" si="12"/>
-        <v>-3560.1663231462521</v>
+        <v>-4126.9836855289332</v>
       </c>
       <c r="G70" s="5">
         <f t="shared" si="10"/>
-        <v>13519.618948656645</v>
+        <v>15672.08994504658</v>
       </c>
       <c r="H70" s="5">
         <v>0</v>
@@ -7129,23 +7067,23 @@
       </c>
       <c r="L70" s="7">
         <f t="shared" si="13"/>
-        <v>3534414.6680059549</v>
+        <v>4097132.0856336039</v>
       </c>
       <c r="M70" s="7">
         <f t="shared" si="14"/>
-        <v>3534414.6680059549</v>
+        <v>4097132.0856336039</v>
       </c>
       <c r="N70" s="8">
         <f t="shared" si="17"/>
-        <v>187251.78526429858</v>
+        <v>222669.4565702783</v>
       </c>
       <c r="O70" s="12">
         <f t="shared" si="18"/>
-        <v>5.4568961748633904E-2</v>
+        <v>5.5978068432694608E-2</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" si="15"/>
-        <v>84307.668720435613</v>
+        <v>103335.51232852266</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -7153,7 +7091,6 @@
         <v>2081</v>
       </c>
       <c r="B71" s="4">
-        <f>B8</f>
         <v>0.03</v>
       </c>
       <c r="C71" s="5">
@@ -7168,11 +7105,11 @@
       </c>
       <c r="F71" s="5">
         <f t="shared" si="12"/>
-        <v>-3666.9713128406397</v>
+        <v>-4250.7931960948017</v>
       </c>
       <c r="G71" s="5">
         <f t="shared" si="10"/>
-        <v>13925.207517116345</v>
+        <v>16142.252643397978</v>
       </c>
       <c r="H71" s="5">
         <v>0</v>
@@ -7182,23 +7119,23 @@
       </c>
       <c r="L71" s="7">
         <f t="shared" si="13"/>
-        <v>3640447.1080461335</v>
+        <v>4220046.0482026124</v>
       </c>
       <c r="M71" s="7">
         <f t="shared" si="14"/>
-        <v>3640447.1080461335</v>
+        <v>4220046.0482026124</v>
       </c>
       <c r="N71" s="8">
         <f t="shared" si="17"/>
-        <v>192869.33882222729</v>
+        <v>229349.54026738694</v>
       </c>
       <c r="O71" s="12">
         <f t="shared" si="18"/>
-        <v>5.4568961748633828E-2</v>
+        <v>5.5978068432694678E-2</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="15"/>
-        <v>86836.898782048695</v>
+        <v>106435.57769837834</v>
       </c>
     </row>
   </sheetData>
